--- a/capiq_data/in_process_data/IQ330123.xlsx
+++ b/capiq_data/in_process_data/IQ330123.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D720EA-5C35-46AA-841C-7919FC192CD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281642EC-E70A-44CD-8757-22F25E2479D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"944ed2af-0233-4f25-8e5a-7a33faafb327"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"70dcd3cc-b93c-4559-9b5a-2fbe303cca45"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-1160.2719999999999</v>
+        <v>58.656999999999996</v>
       </c>
       <c r="D2">
-        <v>222.572</v>
+        <v>163.505</v>
       </c>
       <c r="E2">
-        <v>58.978999999999999</v>
+        <v>34.988999999999997</v>
       </c>
       <c r="F2">
-        <v>162.99100000000001</v>
+        <v>156.94499999999999</v>
       </c>
       <c r="G2">
-        <v>1000.629</v>
+        <v>92.858999999999995</v>
       </c>
       <c r="H2">
-        <v>14902.666999999999</v>
+        <v>5946.3339999999998</v>
       </c>
       <c r="I2">
-        <v>387.13600000000002</v>
+        <v>147.02199999999999</v>
       </c>
       <c r="J2">
-        <v>6506.0290000000005</v>
+        <v>2237.9140000000002</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>439.822</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>578.94399999999996</v>
+        <v>644.58299999999997</v>
       </c>
       <c r="O2">
-        <v>7382.3119999999999</v>
+        <v>2972.3330000000001</v>
       </c>
       <c r="P2">
-        <v>6507.4290000000001</v>
+        <v>2677.7359999999999</v>
       </c>
       <c r="Q2">
-        <v>19.835000000000001</v>
+        <v>-85.984999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>1100</v>
+        <v>640</v>
       </c>
       <c r="T2">
-        <v>7520.3549999999996</v>
+        <v>2974.0010000000002</v>
       </c>
       <c r="U2">
-        <v>37.634</v>
+        <v>57.87</v>
       </c>
       <c r="V2">
-        <v>16.184000000000001</v>
+        <v>34.643000000000001</v>
       </c>
       <c r="W2">
-        <v>-71.088999999999999</v>
+        <v>-69.956000000000003</v>
       </c>
       <c r="X2">
-        <v>-817.97400000000005</v>
+        <v>102.911</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>72.867999999999995</v>
+        <v>-116.182</v>
       </c>
       <c r="AA2">
-        <v>-1160.2719999999999</v>
+        <v>58.656999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-40.247</v>
+        <v>55.439</v>
       </c>
       <c r="D3">
-        <v>242.435</v>
+        <v>159.649</v>
       </c>
       <c r="E3">
-        <v>95.537999999999997</v>
+        <v>57.198</v>
       </c>
       <c r="F3">
-        <v>171.685</v>
+        <v>152.887</v>
       </c>
       <c r="G3">
-        <v>728.40700000000004</v>
+        <v>90.72</v>
       </c>
       <c r="H3">
-        <v>14935.695</v>
+        <v>5569.7619999999997</v>
       </c>
       <c r="I3">
-        <v>393.86200000000002</v>
+        <v>135.47399999999999</v>
       </c>
       <c r="J3">
-        <v>6415.0339999999997</v>
+        <v>2236.2579999999998</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>120.21</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-286.16800000000001</v>
+        <v>-522.13</v>
       </c>
       <c r="N3">
-        <v>397.32600000000002</v>
+        <v>256.41300000000001</v>
       </c>
       <c r="O3">
-        <v>7309.3059999999996</v>
+        <v>2583.558</v>
       </c>
       <c r="P3">
-        <v>6416.0339999999997</v>
+        <v>2356.4679999999998</v>
       </c>
       <c r="Q3">
-        <v>-12.89</v>
+        <v>-24.347999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>7626.3890000000001</v>
+        <v>2986.2040000000002</v>
       </c>
       <c r="U3">
-        <v>24.744</v>
+        <v>33.521999999999998</v>
       </c>
       <c r="V3">
-        <v>2.5619999999999998</v>
+        <v>104.79300000000001</v>
       </c>
       <c r="W3">
-        <v>-70.397000000000006</v>
+        <v>-68.59</v>
       </c>
       <c r="X3">
-        <v>-195.155</v>
+        <v>-382.47800000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>50.021999999999998</v>
+        <v>209.78299999999999</v>
       </c>
       <c r="AA3">
-        <v>-40.247</v>
+        <v>55.439</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-143.82900000000001</v>
+        <v>54.070999999999998</v>
       </c>
       <c r="D4">
-        <v>321.85000000000002</v>
+        <v>152.489</v>
       </c>
       <c r="E4">
-        <v>197.47499999999999</v>
+        <v>37.728999999999999</v>
       </c>
       <c r="F4">
-        <v>236.32300000000001</v>
+        <v>145.56899999999999</v>
       </c>
       <c r="G4">
-        <v>1290.0709999999999</v>
+        <v>90.968000000000004</v>
       </c>
       <c r="H4">
-        <v>29134.506000000001</v>
+        <v>5587.4380000000001</v>
       </c>
       <c r="I4">
-        <v>619.27800000000002</v>
+        <v>137.82400000000001</v>
       </c>
       <c r="J4">
-        <v>11972.277</v>
+        <v>2210.9059999999999</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>306.08600000000001</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>971.88</v>
+        <v>444.63900000000001</v>
       </c>
       <c r="O4">
-        <v>14064.261</v>
+        <v>2760.8020000000001</v>
       </c>
       <c r="P4">
-        <v>12140.552</v>
+        <v>2516.9920000000002</v>
       </c>
       <c r="Q4">
-        <v>236.149</v>
+        <v>19.716999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>15070.245000000001</v>
+        <v>2826.636</v>
       </c>
       <c r="U4">
-        <v>260.89299999999997</v>
+        <v>53.238999999999997</v>
       </c>
       <c r="V4">
-        <v>-18.459</v>
+        <v>84.453000000000003</v>
       </c>
       <c r="W4">
-        <v>-71.340999999999994</v>
+        <v>-69.573999999999998</v>
       </c>
       <c r="X4">
-        <v>1080.549</v>
+        <v>-46.243000000000002</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>18.562999999999999</v>
+        <v>-39.616</v>
       </c>
       <c r="AA4">
-        <v>-143.82900000000001</v>
+        <v>54.070999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>65.844999999999999</v>
+        <v>57.09</v>
       </c>
       <c r="D5">
-        <v>500.11200000000002</v>
+        <v>158.245</v>
       </c>
       <c r="E5">
-        <v>216.423</v>
+        <v>27.771999999999998</v>
       </c>
       <c r="F5">
-        <v>363.08300000000003</v>
+        <v>150.27199999999999</v>
       </c>
       <c r="G5">
-        <v>1187.617</v>
+        <v>68.891000000000005</v>
       </c>
       <c r="H5">
-        <v>28586.304</v>
+        <v>5623.4440000000004</v>
       </c>
       <c r="I5">
-        <v>540.44399999999996</v>
+        <v>159.36199999999999</v>
       </c>
       <c r="J5">
-        <v>12058.502</v>
+        <v>2202.107</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>287.553</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>804.11599999999999</v>
+        <v>447.64400000000001</v>
       </c>
       <c r="O5">
-        <v>13984.338</v>
+        <v>2749.3879999999999</v>
       </c>
       <c r="P5">
-        <v>12177.377</v>
+        <v>2489.66</v>
       </c>
       <c r="Q5">
-        <v>-44.143999999999998</v>
+        <v>-12.12</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>14601.966</v>
+        <v>2874.056</v>
       </c>
       <c r="U5">
-        <v>216.749</v>
+        <v>41.119</v>
       </c>
       <c r="V5">
-        <v>120.84399999999999</v>
+        <v>85.593999999999994</v>
       </c>
       <c r="W5">
-        <v>-138.459</v>
+        <v>-68.298000000000002</v>
       </c>
       <c r="X5">
-        <v>-11.375</v>
+        <v>-88.12</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>36.119</v>
+        <v>6.0609999999999999</v>
       </c>
       <c r="AA5">
-        <v>65.844999999999999</v>
+        <v>57.09</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-35.183</v>
+        <v>-38.456000000000003</v>
       </c>
       <c r="D6">
-        <v>446.86500000000001</v>
+        <v>52.741999999999997</v>
       </c>
       <c r="E6">
-        <v>147.999</v>
+        <v>23.829000000000001</v>
       </c>
       <c r="F6">
-        <v>326.64999999999998</v>
+        <v>45.697000000000003</v>
       </c>
       <c r="G6">
-        <v>1384.8219999999999</v>
+        <v>51.817999999999998</v>
       </c>
       <c r="H6">
-        <v>27723.912</v>
+        <v>5559.8630000000003</v>
       </c>
       <c r="I6">
-        <v>610.99</v>
+        <v>136.73599999999999</v>
       </c>
       <c r="J6">
-        <v>11382.407999999999</v>
+        <v>2202.4650000000001</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>375.875</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1343.55</v>
+        <v>575.78</v>
       </c>
       <c r="O6">
-        <v>13268.438</v>
+        <v>2838.2249999999999</v>
       </c>
       <c r="P6">
-        <v>11410.907999999999</v>
+        <v>2578.34</v>
       </c>
       <c r="Q6">
-        <v>-40.677</v>
+        <v>-13.13</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>1457</v>
+        <v>650</v>
       </c>
       <c r="T6">
-        <v>14455.474</v>
+        <v>2721.6379999999999</v>
       </c>
       <c r="U6">
-        <v>176.072</v>
+        <v>27.989000000000001</v>
       </c>
       <c r="V6">
-        <v>102.117</v>
+        <v>68.432000000000002</v>
       </c>
       <c r="W6">
-        <v>-133.90100000000001</v>
+        <v>-68.537999999999997</v>
       </c>
       <c r="X6">
-        <v>-710.70100000000002</v>
+        <v>39.735999999999997</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>27.699000000000002</v>
+        <v>-103.551</v>
       </c>
       <c r="AA6">
-        <v>-35.183</v>
+        <v>-38.456000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>212.97900000000001</v>
+        <v>63.174999999999997</v>
       </c>
       <c r="D7">
-        <v>491.863</v>
+        <v>172.26</v>
       </c>
       <c r="E7">
-        <v>163.679</v>
+        <v>27.699000000000002</v>
       </c>
       <c r="F7">
-        <v>356.74900000000002</v>
+        <v>164.51900000000001</v>
       </c>
       <c r="G7">
-        <v>948.79600000000005</v>
+        <v>87.388000000000005</v>
       </c>
       <c r="H7">
-        <v>28867.953000000001</v>
+        <v>5497.4570000000003</v>
       </c>
       <c r="I7">
-        <v>641.58399999999995</v>
+        <v>112.99</v>
       </c>
       <c r="J7">
-        <v>11711.921</v>
+        <v>2181.98</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>322.88099999999997</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-221.66900000000001</v>
       </c>
       <c r="M7">
-        <v>-979.32100000000003</v>
+        <v>-20.408999999999999</v>
       </c>
       <c r="N7">
-        <v>2041.8320000000001</v>
+        <v>436.6</v>
       </c>
       <c r="O7">
-        <v>14317.293</v>
+        <v>2699.0340000000001</v>
       </c>
       <c r="P7">
-        <v>12413.421</v>
+        <v>2504.8609999999999</v>
       </c>
       <c r="Q7">
-        <v>167.66399999999999</v>
+        <v>31.7</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>14550.66</v>
+        <v>2798.4229999999998</v>
       </c>
       <c r="U7">
-        <v>343.73599999999999</v>
+        <v>59.689</v>
       </c>
       <c r="V7">
-        <v>71.435000000000002</v>
+        <v>79.528999999999996</v>
       </c>
       <c r="W7">
-        <v>-145.601</v>
+        <v>-70.730999999999995</v>
       </c>
       <c r="X7">
-        <v>-80.218000000000004</v>
+        <v>-109.982</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>2.847</v>
+        <v>-12.481</v>
       </c>
       <c r="AA7">
-        <v>212.98</v>
+        <v>63.174999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>1.93</v>
+        <v>65.013999999999996</v>
       </c>
       <c r="D8">
-        <v>500.18900000000002</v>
+        <v>174.53299999999999</v>
       </c>
       <c r="E8">
-        <v>168.00800000000001</v>
+        <v>22.405999999999999</v>
       </c>
       <c r="F8">
-        <v>360.49400000000003</v>
+        <v>165.75700000000001</v>
       </c>
       <c r="G8">
-        <v>909.149</v>
+        <v>80.516000000000005</v>
       </c>
       <c r="H8">
-        <v>28415.562999999998</v>
+        <v>5598.9679999999998</v>
       </c>
       <c r="I8">
-        <v>564.11900000000003</v>
+        <v>127.815</v>
       </c>
       <c r="J8">
-        <v>12366.584999999999</v>
+        <v>2157.3530000000001</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>363.08499999999998</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1311.65</v>
+        <v>491.62900000000002</v>
       </c>
       <c r="O8">
-        <v>14245.995999999999</v>
+        <v>2725.11</v>
       </c>
       <c r="P8">
-        <v>12469.485000000001</v>
+        <v>2520.4380000000001</v>
       </c>
       <c r="Q8">
-        <v>-50.104999999999997</v>
+        <v>-1.579</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>14169.566999999999</v>
+        <v>2873.8580000000002</v>
       </c>
       <c r="U8">
-        <v>293.63099999999997</v>
+        <v>58.11</v>
       </c>
       <c r="V8">
-        <v>88.67</v>
+        <v>77.414000000000001</v>
       </c>
       <c r="W8">
-        <v>-141.285</v>
+        <v>-71.427000000000007</v>
       </c>
       <c r="X8">
-        <v>-159.68299999999999</v>
+        <v>-50.289000000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>155.62100000000001</v>
+        <v>-12.106999999999999</v>
       </c>
       <c r="AA8">
-        <v>1.929</v>
+        <v>65.013999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-36.220999999999997</v>
+        <v>33.390999999999998</v>
       </c>
       <c r="D9">
-        <v>502.02499999999998</v>
+        <v>134.94999999999999</v>
       </c>
       <c r="E9">
-        <v>181.85499999999999</v>
+        <v>36.579000000000001</v>
       </c>
       <c r="F9">
-        <v>359.86399999999998</v>
+        <v>126.47199999999999</v>
       </c>
       <c r="G9">
-        <v>1133.1790000000001</v>
+        <v>119.252</v>
       </c>
       <c r="H9">
-        <v>28576.421999999999</v>
+        <v>5758.4440000000004</v>
       </c>
       <c r="I9">
-        <v>589.07299999999998</v>
+        <v>190.21899999999999</v>
       </c>
       <c r="J9">
-        <v>12535.06</v>
+        <v>2153.5889999999999</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>397.58199999999999</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1296.143</v>
+        <v>588.53</v>
       </c>
       <c r="O9">
-        <v>14401.901</v>
+        <v>2871.2759999999998</v>
       </c>
       <c r="P9">
-        <v>12614.86</v>
+        <v>2551.1709999999998</v>
       </c>
       <c r="Q9">
-        <v>-135.44300000000001</v>
+        <v>24.562999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>14174.521000000001</v>
+        <v>2887.1680000000001</v>
       </c>
       <c r="U9">
-        <v>158.18799999999999</v>
+        <v>82.673000000000002</v>
       </c>
       <c r="V9">
-        <v>213.24299999999999</v>
+        <v>119.172</v>
       </c>
       <c r="W9">
-        <v>-139.542</v>
+        <v>-71.396000000000001</v>
       </c>
       <c r="X9">
-        <v>-105.977</v>
+        <v>-38.625999999999998</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>9.109</v>
+        <v>-29.061</v>
       </c>
       <c r="AA9">
-        <v>-36.220999999999997</v>
+        <v>33.390999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-218.40799999999999</v>
+        <v>87.301000000000002</v>
       </c>
       <c r="D10">
-        <v>498.11700000000002</v>
+        <v>285.108</v>
       </c>
       <c r="E10">
-        <v>171.084</v>
+        <v>35.615000000000002</v>
       </c>
       <c r="F10">
-        <v>360.02800000000002</v>
+        <v>184.78700000000001</v>
       </c>
       <c r="G10">
-        <v>912.52800000000002</v>
+        <v>146.42400000000001</v>
       </c>
       <c r="H10">
-        <v>27310.145</v>
+        <v>5911.38</v>
       </c>
       <c r="I10">
-        <v>566.27</v>
+        <v>172.06899999999999</v>
       </c>
       <c r="J10">
-        <v>11790.794</v>
+        <v>2186.0720000000001</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>545.90599999999995</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1154.68</v>
+        <v>717.97500000000002</v>
       </c>
       <c r="O10">
-        <v>13536.808999999999</v>
+        <v>2994.5709999999999</v>
       </c>
       <c r="P10">
-        <v>11818.794</v>
+        <v>2731.9780000000001</v>
       </c>
       <c r="Q10">
-        <v>-57.378</v>
+        <v>28.135999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>1445</v>
+        <v>700</v>
       </c>
       <c r="T10">
-        <v>13773.335999999999</v>
+        <v>2916.8090000000002</v>
       </c>
       <c r="U10">
-        <v>100.81</v>
+        <v>110.809</v>
       </c>
       <c r="V10">
-        <v>90.144000000000005</v>
+        <v>101.12</v>
       </c>
       <c r="W10">
-        <v>-141.40600000000001</v>
+        <v>-71.430999999999997</v>
       </c>
       <c r="X10">
-        <v>-725.63300000000004</v>
+        <v>40.627000000000002</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-406.065</v>
+        <v>133.48400000000001</v>
       </c>
       <c r="AA10">
-        <v>-218.40799999999999</v>
+        <v>87.301000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>284.82900000000001</v>
+        <v>46.884</v>
       </c>
       <c r="D11">
-        <v>504.73899999999998</v>
+        <v>155.18799999999999</v>
       </c>
       <c r="E11">
-        <v>139.691</v>
+        <v>46.427</v>
       </c>
       <c r="F11">
-        <v>354.476</v>
+        <v>118.631</v>
       </c>
       <c r="G11">
-        <v>1198.9459999999999</v>
+        <v>158.423</v>
       </c>
       <c r="H11">
-        <v>24075.298999999999</v>
+        <v>5977.2529999999997</v>
       </c>
       <c r="I11">
-        <v>581.13400000000001</v>
+        <v>145.107</v>
       </c>
       <c r="J11">
-        <v>8756.6229999999996</v>
+        <v>2433.9670000000001</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>394.33499999999998</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-151.571</v>
       </c>
       <c r="M11">
-        <v>-2127.5830000000001</v>
+        <v>-82.43</v>
       </c>
       <c r="N11">
-        <v>1671.367</v>
+        <v>540.17100000000005</v>
       </c>
       <c r="O11">
-        <v>10864.766</v>
+        <v>3066.0450000000001</v>
       </c>
       <c r="P11">
-        <v>9564.5229999999992</v>
+        <v>2828.3020000000001</v>
       </c>
       <c r="Q11">
-        <v>684.54899999999998</v>
+        <v>1.1870000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>13210.532999999999</v>
+        <v>2911.2080000000001</v>
       </c>
       <c r="U11">
-        <v>785.35900000000004</v>
+        <v>111.996</v>
       </c>
       <c r="V11">
-        <v>129.13999999999999</v>
+        <v>65.171000000000006</v>
       </c>
       <c r="W11">
-        <v>-140.52799999999999</v>
+        <v>-72.510999999999996</v>
       </c>
       <c r="X11">
-        <v>-2261.8649999999998</v>
+        <v>20.388999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-175.56700000000001</v>
+        <v>15.590999999999999</v>
       </c>
       <c r="AA11">
-        <v>284.82900000000001</v>
+        <v>46.884</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>2.2989999999999999</v>
+        <v>55.66</v>
       </c>
       <c r="D12">
-        <v>419.11399999999998</v>
+        <v>152.91399999999999</v>
       </c>
       <c r="E12">
-        <v>124.98</v>
+        <v>34.640999999999998</v>
       </c>
       <c r="F12">
-        <v>284.27100000000002</v>
+        <v>117.90300000000001</v>
       </c>
       <c r="G12">
-        <v>764.41200000000003</v>
+        <v>208.07900000000001</v>
       </c>
       <c r="H12">
-        <v>24037.567999999999</v>
+        <v>6129.6239999999998</v>
       </c>
       <c r="I12">
-        <v>644.78099999999995</v>
+        <v>165.43799999999999</v>
       </c>
       <c r="J12">
-        <v>8242.31</v>
+        <v>2421.9479999999999</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>469.125</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1048.5319999999999</v>
+        <v>635.29200000000003</v>
       </c>
       <c r="O12">
-        <v>9715.0660000000007</v>
+        <v>3125.067</v>
       </c>
       <c r="P12">
-        <v>8423.61</v>
+        <v>2891.0729999999999</v>
       </c>
       <c r="Q12">
-        <v>-399.935</v>
+        <v>61.442</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>14322.502</v>
+        <v>3004.5569999999998</v>
       </c>
       <c r="U12">
-        <v>385.42399999999998</v>
+        <v>173.43799999999999</v>
       </c>
       <c r="V12">
-        <v>74.427999999999997</v>
+        <v>102.02200000000001</v>
       </c>
       <c r="W12">
-        <v>-147.66200000000001</v>
+        <v>-72.644999999999996</v>
       </c>
       <c r="X12">
-        <v>-23.911999999999999</v>
+        <v>-1.335</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-275.14299999999997</v>
+        <v>1.968</v>
       </c>
       <c r="AA12">
-        <v>2.2989999999999999</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-5.399</v>
+        <v>3.3</v>
       </c>
       <c r="D13">
-        <v>449.423</v>
+        <v>110.467</v>
       </c>
       <c r="E13">
-        <v>137.87899999999999</v>
+        <v>40.087000000000003</v>
       </c>
       <c r="F13">
-        <v>320.589</v>
+        <v>78.260999999999996</v>
       </c>
       <c r="G13">
-        <v>499.98099999999999</v>
+        <v>194.727</v>
       </c>
       <c r="H13">
-        <v>24789.543000000001</v>
+        <v>6083.0720000000001</v>
       </c>
       <c r="I13">
-        <v>670.44100000000003</v>
+        <v>177.06899999999999</v>
       </c>
       <c r="J13">
-        <v>9041.3169999999991</v>
+        <v>2420.0070000000001</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>533.27</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>990.41099999999994</v>
+        <v>710.33900000000006</v>
       </c>
       <c r="O13">
-        <v>10526.021000000001</v>
+        <v>3236.2130000000002</v>
       </c>
       <c r="P13">
-        <v>9125.5169999999998</v>
+        <v>2953.277</v>
       </c>
       <c r="Q13">
-        <v>-263.73099999999999</v>
+        <v>-18.797999999999998</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>14263.522000000001</v>
+        <v>2846.8589999999999</v>
       </c>
       <c r="U13">
-        <v>121.693</v>
+        <v>154.63999999999999</v>
       </c>
       <c r="V13">
-        <v>128.68</v>
+        <v>96.403000000000006</v>
       </c>
       <c r="W13">
-        <v>-142.898</v>
+        <v>-72.435000000000002</v>
       </c>
       <c r="X13">
-        <v>356.66699999999997</v>
+        <v>-52.854999999999997</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-228.73099999999999</v>
+        <v>-7.1349999999999998</v>
       </c>
       <c r="AA13">
-        <v>-5.399</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>61.192</v>
+        <v>144.83099999999999</v>
       </c>
       <c r="D14">
-        <v>474.43</v>
+        <v>185.83799999999999</v>
       </c>
       <c r="E14">
-        <v>107.955</v>
+        <v>44.905999999999999</v>
       </c>
       <c r="F14">
-        <v>347.15300000000002</v>
+        <v>153.833</v>
       </c>
       <c r="G14">
-        <v>1093.03</v>
+        <v>376.40899999999999</v>
       </c>
       <c r="H14">
-        <v>24572.307000000001</v>
+        <v>6367.4660000000003</v>
       </c>
       <c r="I14">
-        <v>563.99300000000005</v>
+        <v>175.89599999999999</v>
       </c>
       <c r="J14">
-        <v>9011.2160000000003</v>
+        <v>2291.201</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>699.46799999999996</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>900.08500000000004</v>
+        <v>875.36400000000003</v>
       </c>
       <c r="O14">
-        <v>10395.853999999999</v>
+        <v>3270.7570000000001</v>
       </c>
       <c r="P14">
-        <v>9011.2160000000003</v>
+        <v>2990.6689999999999</v>
       </c>
       <c r="Q14">
-        <v>369.43599999999998</v>
+        <v>176.863</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="T14">
-        <v>14176.453</v>
+        <v>3096.7089999999998</v>
       </c>
       <c r="U14">
-        <v>491.12900000000002</v>
+        <v>331.50299999999999</v>
       </c>
       <c r="V14">
-        <v>152.74100000000001</v>
+        <v>64.935000000000002</v>
       </c>
       <c r="W14">
-        <v>-142.76599999999999</v>
+        <v>-71.81</v>
       </c>
       <c r="X14">
-        <v>-436.512</v>
+        <v>3.03</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-129.86099999999999</v>
+        <v>98.786000000000001</v>
       </c>
       <c r="AA14">
-        <v>61.192</v>
+        <v>144.83099999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>6.8010000000000002</v>
+        <v>54.417000000000002</v>
       </c>
       <c r="D15">
-        <v>464.428</v>
+        <v>159.72300000000001</v>
       </c>
       <c r="E15">
-        <v>114.88</v>
+        <v>36.259</v>
       </c>
       <c r="F15">
-        <v>329.74799999999999</v>
+        <v>123.488</v>
       </c>
       <c r="G15">
-        <v>521.41200000000003</v>
+        <v>209.10900000000001</v>
       </c>
       <c r="H15">
-        <v>24655.148000000001</v>
+        <v>6490.4229999999998</v>
       </c>
       <c r="I15">
-        <v>529.44799999999998</v>
+        <v>167.67400000000001</v>
       </c>
       <c r="J15">
-        <v>8575.6350000000002</v>
+        <v>2266.9989999999998</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>862.07299999999998</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-1317.896</v>
+        <v>-38.625</v>
       </c>
       <c r="N15">
-        <v>867.75400000000002</v>
+        <v>1029.7470000000001</v>
       </c>
       <c r="O15">
-        <v>10161.905000000001</v>
+        <v>3471.8229999999999</v>
       </c>
       <c r="P15">
-        <v>8875.8989999999994</v>
+        <v>3129.0720000000001</v>
       </c>
       <c r="Q15">
-        <v>-302.24299999999999</v>
+        <v>-158.65299999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>14493.243</v>
+        <v>3018.6</v>
       </c>
       <c r="U15">
-        <v>188.886</v>
+        <v>172.85</v>
       </c>
       <c r="V15">
-        <v>72.242999999999995</v>
+        <v>96.206000000000003</v>
       </c>
       <c r="W15">
-        <v>-168.24100000000001</v>
+        <v>-72.677000000000007</v>
       </c>
       <c r="X15">
-        <v>132.184</v>
+        <v>-68.965000000000003</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-235.86099999999999</v>
+        <v>15.131</v>
       </c>
       <c r="AA15">
-        <v>6.8010000000000002</v>
+        <v>54.417000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>81.180000000000007</v>
+        <v>85.649000000000001</v>
       </c>
       <c r="D16">
-        <v>481.24</v>
+        <v>151.249</v>
       </c>
       <c r="E16">
-        <v>123.961</v>
+        <v>34.491999999999997</v>
       </c>
       <c r="F16">
-        <v>343.827</v>
+        <v>117.964</v>
       </c>
       <c r="G16">
-        <v>403.91500000000002</v>
+        <v>588.99199999999996</v>
       </c>
       <c r="H16">
-        <v>24131.562000000002</v>
+        <v>6520.8090000000002</v>
       </c>
       <c r="I16">
-        <v>572.93899999999996</v>
+        <v>176.816</v>
       </c>
       <c r="J16">
-        <v>8504.4529999999995</v>
+        <v>2412.018</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>713.05</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>640.84900000000005</v>
+        <v>889.86599999999999</v>
       </c>
       <c r="O16">
-        <v>9854.7119999999995</v>
+        <v>3495.837</v>
       </c>
       <c r="P16">
-        <v>8534.5210000000006</v>
+        <v>3125.0680000000002</v>
       </c>
       <c r="Q16">
-        <v>78.540999999999997</v>
+        <v>221.739</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>14276.85</v>
+        <v>3024.9720000000002</v>
       </c>
       <c r="U16">
-        <v>267.42700000000002</v>
+        <v>394.589</v>
       </c>
       <c r="V16">
-        <v>233.62299999999999</v>
+        <v>196.214</v>
       </c>
       <c r="W16">
-        <v>-168.00399999999999</v>
+        <v>-72.561000000000007</v>
       </c>
       <c r="X16">
-        <v>-483.07799999999997</v>
+        <v>-45.832999999999998</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-293.11200000000002</v>
+        <v>-12.34</v>
       </c>
       <c r="AA16">
-        <v>81.180000000000007</v>
+        <v>85.649000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>137.91499999999999</v>
+        <v>86.111999999999995</v>
       </c>
       <c r="D17">
-        <v>443.66500000000002</v>
+        <v>155.38300000000001</v>
       </c>
       <c r="E17">
-        <v>132.464</v>
+        <v>102.50700000000001</v>
       </c>
       <c r="F17">
-        <v>318.899</v>
+        <v>122.117</v>
       </c>
       <c r="G17">
-        <v>505.89</v>
+        <v>309.60199999999998</v>
       </c>
       <c r="H17">
-        <v>24072.102999999999</v>
+        <v>6992.8760000000002</v>
       </c>
       <c r="I17">
-        <v>552.24199999999996</v>
+        <v>230.673</v>
       </c>
       <c r="J17">
-        <v>8803.9519999999993</v>
+        <v>2417.893</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1023.975</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>575.96500000000003</v>
+        <v>1256.6479999999999</v>
       </c>
       <c r="O17">
-        <v>9935.3539999999994</v>
+        <v>3875.0659999999998</v>
       </c>
       <c r="P17">
-        <v>8827.6749999999993</v>
+        <v>3443.8679999999999</v>
       </c>
       <c r="Q17">
-        <v>44.451999999999998</v>
+        <v>-187.494</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>14136.749</v>
+        <v>3117.81</v>
       </c>
       <c r="U17">
-        <v>311.87900000000002</v>
+        <v>207.095</v>
       </c>
       <c r="V17">
-        <v>144.92099999999999</v>
+        <v>128.59100000000001</v>
       </c>
       <c r="W17">
-        <v>-166.01400000000001</v>
+        <v>-72.739999999999995</v>
       </c>
       <c r="X17">
-        <v>327.75200000000001</v>
+        <v>286.34300000000002</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-607.04999999999995</v>
+        <v>-33.194000000000003</v>
       </c>
       <c r="AA17">
-        <v>137.91499999999999</v>
+        <v>86.111999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>410.28699999999998</v>
+        <v>6.617</v>
       </c>
       <c r="D18">
-        <v>505.74200000000002</v>
+        <v>1444.9490000000001</v>
       </c>
       <c r="E18">
-        <v>103.44499999999999</v>
+        <v>92.015000000000001</v>
       </c>
       <c r="F18">
-        <v>375.31799999999998</v>
+        <v>299.39499999999998</v>
       </c>
       <c r="G18">
-        <v>842.72900000000004</v>
+        <v>560.94100000000003</v>
       </c>
       <c r="H18">
-        <v>25775.001</v>
+        <v>7097.799</v>
       </c>
       <c r="I18">
-        <v>627.99900000000002</v>
+        <v>255.84100000000001</v>
       </c>
       <c r="J18">
-        <v>9336.9770000000008</v>
+        <v>3413.9609999999998</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>790.17499999999995</v>
+        <v>255.84100000000001</v>
       </c>
       <c r="O18">
-        <v>10591.402</v>
+        <v>3929.0329999999999</v>
       </c>
       <c r="P18">
-        <v>9338.3719999999994</v>
+        <v>3413.9609999999998</v>
       </c>
       <c r="Q18">
-        <v>38.813000000000002</v>
+        <v>29.434000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>1505</v>
+        <v>830</v>
       </c>
       <c r="T18">
-        <v>15183.599</v>
+        <v>3168.7660000000001</v>
       </c>
       <c r="U18">
-        <v>350.69200000000001</v>
+        <v>236.529</v>
       </c>
       <c r="V18">
-        <v>253.744</v>
+        <v>137.84200000000001</v>
       </c>
       <c r="W18">
-        <v>-169.93100000000001</v>
+        <v>-73.903000000000006</v>
       </c>
       <c r="X18">
-        <v>-314.67500000000001</v>
+        <v>-135.35599999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>640.69399999999996</v>
+        <v>-8.6210000000000004</v>
       </c>
       <c r="AA18">
-        <v>410.28699999999998</v>
+        <v>6.617</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>346.87599999999998</v>
+        <v>61.427999999999997</v>
       </c>
       <c r="D19">
-        <v>493.88900000000001</v>
+        <v>442.721</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>32.024000000000001</v>
       </c>
       <c r="F19">
-        <v>341.61200000000002</v>
+        <v>177.95</v>
       </c>
       <c r="G19">
-        <v>726.74199999999996</v>
+        <v>482.20800000000003</v>
       </c>
       <c r="H19">
-        <v>25460.821</v>
+        <v>7439.3890000000001</v>
       </c>
       <c r="I19">
-        <v>459.84500000000003</v>
+        <v>241.93</v>
       </c>
       <c r="J19">
-        <v>8509.4210000000003</v>
+        <v>2439.6660000000002</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1322.2249999999999</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-313.005</v>
+        <v>-20.045999999999999</v>
       </c>
       <c r="N19">
-        <v>600.13699999999994</v>
+        <v>1564.155</v>
       </c>
       <c r="O19">
-        <v>9668.0139999999992</v>
+        <v>4280.7529999999997</v>
       </c>
       <c r="P19">
-        <v>8641.4210000000003</v>
+        <v>3761.8910000000001</v>
       </c>
       <c r="Q19">
-        <v>-158.679</v>
+        <v>110.911</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>15792.807000000001</v>
+        <v>3158.636</v>
       </c>
       <c r="U19">
-        <v>192.01300000000001</v>
+        <v>347.44</v>
       </c>
       <c r="V19">
-        <v>81.531999999999996</v>
+        <v>98.980999999999995</v>
       </c>
       <c r="W19">
-        <v>-190.58500000000001</v>
+        <v>-75.248000000000005</v>
       </c>
       <c r="X19">
-        <v>-31.952999999999999</v>
+        <v>266.87400000000002</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-88.84</v>
+        <v>-16.763999999999999</v>
       </c>
       <c r="AA19">
-        <v>346.87599999999998</v>
+        <v>61.427999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>141.91800000000001</v>
+        <v>83.522999999999996</v>
       </c>
       <c r="D20">
-        <v>552.18799999999999</v>
+        <v>473.863</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>59.098999999999997</v>
       </c>
       <c r="F20">
-        <v>401.42099999999999</v>
+        <v>194.625</v>
       </c>
       <c r="G20">
-        <v>1063.277</v>
+        <v>311.31200000000001</v>
       </c>
       <c r="H20">
-        <v>31602.397000000001</v>
+        <v>7344.116</v>
       </c>
       <c r="I20">
-        <v>537.43200000000002</v>
+        <v>266.20600000000002</v>
       </c>
       <c r="J20">
-        <v>12097.305</v>
+        <v>2316.3330000000001</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1344.856</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>572.64700000000005</v>
+        <v>1611.0619999999999</v>
       </c>
       <c r="O20">
-        <v>13248.373</v>
+        <v>4185.7629999999999</v>
       </c>
       <c r="P20">
-        <v>12123.56</v>
+        <v>3661.1889999999999</v>
       </c>
       <c r="Q20">
-        <v>159.012</v>
+        <v>-190.37899999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>18354.024000000001</v>
+        <v>3158.3530000000001</v>
       </c>
       <c r="U20">
-        <v>351.02499999999998</v>
+        <v>157.06100000000001</v>
       </c>
       <c r="V20">
-        <v>274.35700000000003</v>
+        <v>157.44200000000001</v>
       </c>
       <c r="W20">
-        <v>-190.60400000000001</v>
+        <v>-75.364999999999995</v>
       </c>
       <c r="X20">
-        <v>4763.3829999999998</v>
+        <v>-60.442999999999998</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-184.965</v>
+        <v>-23.923999999999999</v>
       </c>
       <c r="AA20">
-        <v>141.91800000000001</v>
+        <v>83.522999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>260.64999999999998</v>
+        <v>135.756</v>
       </c>
       <c r="D21">
-        <v>614.17899999999997</v>
+        <v>539.58199999999999</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>335.137</v>
       </c>
       <c r="F21">
-        <v>447.363</v>
+        <v>212.05799999999999</v>
       </c>
       <c r="G21">
-        <v>877.31500000000005</v>
+        <v>526.19200000000001</v>
       </c>
       <c r="H21">
-        <v>31419.353999999999</v>
+        <v>12978.767</v>
       </c>
       <c r="I21">
-        <v>697.86</v>
+        <v>367.262</v>
       </c>
       <c r="J21">
-        <v>11916.355</v>
+        <v>3544.94</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2991.078</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>723.09</v>
+        <v>3358.34</v>
       </c>
       <c r="O21">
-        <v>13234.383</v>
+        <v>7456.0510000000004</v>
       </c>
       <c r="P21">
-        <v>11934.355</v>
+        <v>6536.018</v>
       </c>
       <c r="Q21">
-        <v>-40.591999999999999</v>
+        <v>16.52</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>18184.971000000001</v>
+        <v>5522.7160000000003</v>
       </c>
       <c r="U21">
-        <v>310.43299999999999</v>
+        <v>173.58099999999999</v>
       </c>
       <c r="V21">
-        <v>400.66800000000001</v>
+        <v>50.420999999999999</v>
       </c>
       <c r="W21">
-        <v>-211.60599999999999</v>
+        <v>-75.694999999999993</v>
       </c>
       <c r="X21">
-        <v>-550.44899999999996</v>
+        <v>1470.742</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-150.25</v>
+        <v>25.881</v>
       </c>
       <c r="AA21">
-        <v>260.64999999999998</v>
+        <v>135.756</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>119.995</v>
+        <v>115.456</v>
       </c>
       <c r="D22">
-        <v>696.08</v>
+        <v>430.05700000000002</v>
       </c>
       <c r="E22">
-        <v>89.611000000000004</v>
+        <v>327.214</v>
       </c>
       <c r="F22">
-        <v>513.33600000000001</v>
+        <v>222.12799999999999</v>
       </c>
       <c r="G22">
-        <v>1255.1199999999999</v>
+        <v>692.25099999999998</v>
       </c>
       <c r="H22">
-        <v>31394.767</v>
+        <v>13126.18</v>
       </c>
       <c r="I22">
-        <v>712.72500000000002</v>
+        <v>344.423</v>
       </c>
       <c r="J22">
-        <v>11626.831</v>
+        <v>6677.88</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>839.33500000000004</v>
+        <v>555.55399999999997</v>
       </c>
       <c r="O22">
-        <v>12973.931</v>
+        <v>7579.5129999999999</v>
       </c>
       <c r="P22">
-        <v>11638.925999999999</v>
+        <v>6677.88</v>
       </c>
       <c r="Q22">
-        <v>-46.353000000000002</v>
+        <v>30.219000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>1555</v>
+        <v>1050</v>
       </c>
       <c r="T22">
-        <v>18420.835999999999</v>
+        <v>5546.6670000000004</v>
       </c>
       <c r="U22">
-        <v>264.08</v>
+        <v>203.8</v>
       </c>
       <c r="V22">
-        <v>359.77</v>
+        <v>191.874</v>
       </c>
       <c r="W22">
-        <v>-211.90199999999999</v>
+        <v>-96.486999999999995</v>
       </c>
       <c r="X22">
-        <v>-585.06500000000005</v>
+        <v>36.219000000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-20.959</v>
+        <v>46.732999999999997</v>
       </c>
       <c r="AA22">
-        <v>119.995</v>
+        <v>115.456</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>209.73</v>
+        <v>189.51300000000001</v>
       </c>
       <c r="D23">
-        <v>664.61099999999999</v>
+        <v>632.476</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>301.86099999999999</v>
       </c>
       <c r="F23">
-        <v>492.73700000000002</v>
+        <v>335.15600000000001</v>
       </c>
       <c r="G23">
-        <v>838.61900000000003</v>
+        <v>814.19200000000001</v>
       </c>
       <c r="H23">
-        <v>31375.748</v>
+        <v>13664.619000000001</v>
       </c>
       <c r="I23">
-        <v>698.678</v>
+        <v>328.20800000000003</v>
       </c>
       <c r="J23">
-        <v>11687.171</v>
+        <v>5218.9849999999997</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1835.643</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-148.589</v>
       </c>
       <c r="M23">
-        <v>-809.30899999999997</v>
+        <v>-29.108000000000001</v>
       </c>
       <c r="N23">
-        <v>704.85199999999998</v>
+        <v>2163.8510000000001</v>
       </c>
       <c r="O23">
-        <v>13035.124</v>
+        <v>8029.8310000000001</v>
       </c>
       <c r="P23">
-        <v>11687.171</v>
+        <v>7054.6279999999997</v>
       </c>
       <c r="Q23">
-        <v>105.657</v>
+        <v>50.295000000000002</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>18340.624</v>
+        <v>5634.7879999999996</v>
       </c>
       <c r="U23">
-        <v>369.73700000000002</v>
+        <v>254.095</v>
       </c>
       <c r="V23">
-        <v>283.87599999999998</v>
+        <v>162.09100000000001</v>
       </c>
       <c r="W23">
-        <v>-222.559</v>
+        <v>-104.026</v>
       </c>
       <c r="X23">
-        <v>-516.53899999999999</v>
+        <v>564.33000000000004</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-5.8760000000000003</v>
+        <v>-361.43599999999998</v>
       </c>
       <c r="AA23">
-        <v>209.73</v>
+        <v>189.51300000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>277.07900000000001</v>
+        <v>174.751</v>
       </c>
       <c r="D24">
-        <v>643.60900000000004</v>
+        <v>726.19</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>303.25700000000001</v>
       </c>
       <c r="F24">
-        <v>475.01799999999997</v>
+        <v>324.43599999999998</v>
       </c>
       <c r="G24">
-        <v>759.45500000000004</v>
+        <v>745.73199999999997</v>
       </c>
       <c r="H24">
-        <v>30745.934000000001</v>
+        <v>14310.786</v>
       </c>
       <c r="I24">
-        <v>627.44100000000003</v>
+        <v>372.40499999999997</v>
       </c>
       <c r="J24">
-        <v>11139.415000000001</v>
+        <v>5264.5590000000002</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2274.35</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>634.16700000000003</v>
+        <v>2646.7550000000001</v>
       </c>
       <c r="O24">
-        <v>12462.9</v>
+        <v>8543.8330000000005</v>
       </c>
       <c r="P24">
-        <v>11139.415000000001</v>
+        <v>7538.9089999999997</v>
       </c>
       <c r="Q24">
-        <v>-37.515999999999998</v>
+        <v>59.945999999999998</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>18283.034</v>
+        <v>5766.9530000000004</v>
       </c>
       <c r="U24">
-        <v>332.221</v>
+        <v>314.041</v>
       </c>
       <c r="V24">
-        <v>349.78399999999999</v>
+        <v>191.35300000000001</v>
       </c>
       <c r="W24">
-        <v>-222.78399999999999</v>
+        <v>-104.361</v>
       </c>
       <c r="X24">
-        <v>-920.81399999999996</v>
+        <v>227.35499999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>393.92200000000003</v>
+        <v>12.766</v>
       </c>
       <c r="AA24">
-        <v>277.07900000000001</v>
+        <v>174.751</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>280.92599999999999</v>
+        <v>172.65899999999999</v>
       </c>
       <c r="D25">
-        <v>750.42200000000003</v>
+        <v>596.66</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>357.77800000000002</v>
       </c>
       <c r="F25">
-        <v>565.28399999999999</v>
+        <v>303.89699999999999</v>
       </c>
       <c r="G25">
-        <v>859.26900000000001</v>
+        <v>1011.729</v>
       </c>
       <c r="H25">
-        <v>30888.208999999999</v>
+        <v>14997.099</v>
       </c>
       <c r="I25">
-        <v>672.11099999999999</v>
+        <v>481.06900000000002</v>
       </c>
       <c r="J25">
-        <v>11256.996999999999</v>
+        <v>5125.6719999999996</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2760.77</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>676.80399999999997</v>
+        <v>3241.8389999999999</v>
       </c>
       <c r="O25">
-        <v>12604.939</v>
+        <v>9051.3340000000007</v>
       </c>
       <c r="P25">
-        <v>11256.996999999999</v>
+        <v>7886.442</v>
       </c>
       <c r="Q25">
-        <v>42.899000000000001</v>
+        <v>205.19300000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>18283.27</v>
+        <v>5945.7650000000003</v>
       </c>
       <c r="U25">
-        <v>375.12</v>
+        <v>519.23400000000004</v>
       </c>
       <c r="V25">
-        <v>363.351</v>
+        <v>213.18</v>
       </c>
       <c r="W25">
-        <v>-224.041</v>
+        <v>-104.504</v>
       </c>
       <c r="X25">
-        <v>-191.31</v>
+        <v>329.68099999999998</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-37.5</v>
+        <v>63.481000000000002</v>
       </c>
       <c r="AA25">
-        <v>280.92599999999999</v>
+        <v>172.65899999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>442.197</v>
+        <v>337.44400000000002</v>
       </c>
       <c r="D26">
-        <v>680.8</v>
+        <v>634.923</v>
       </c>
       <c r="E26">
-        <v>110.91800000000001</v>
+        <v>439.791</v>
       </c>
       <c r="F26">
-        <v>509.02699999999999</v>
+        <v>393.553</v>
       </c>
       <c r="G26">
-        <v>1570.4849999999999</v>
+        <v>2170.2919999999999</v>
       </c>
       <c r="H26">
-        <v>30249.932000000001</v>
+        <v>15903.525</v>
       </c>
       <c r="I26">
-        <v>556.17899999999997</v>
+        <v>518.65099999999995</v>
       </c>
       <c r="J26">
-        <v>10608.294</v>
+        <v>8386.8860000000004</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>666.57299999999998</v>
+        <v>714.476</v>
       </c>
       <c r="O26">
-        <v>11791.791999999999</v>
+        <v>9452.6779999999999</v>
       </c>
       <c r="P26">
-        <v>10608.294</v>
+        <v>8386.8860000000004</v>
       </c>
       <c r="Q26">
-        <v>432.19600000000003</v>
+        <v>-43.442999999999998</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>1530</v>
+        <v>1270</v>
       </c>
       <c r="T26">
-        <v>18458.14</v>
+        <v>6450.8469999999998</v>
       </c>
       <c r="U26">
-        <v>807.31600000000003</v>
+        <v>475.791</v>
       </c>
       <c r="V26">
-        <v>419.99400000000003</v>
+        <v>120.703</v>
       </c>
       <c r="W26">
-        <v>-224.071</v>
+        <v>-99.488</v>
       </c>
       <c r="X26">
-        <v>-496.80200000000002</v>
+        <v>523.51599999999996</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>160.053</v>
+        <v>-3.53</v>
       </c>
       <c r="AA26">
-        <v>442.197</v>
+        <v>337.44400000000002</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>204.929</v>
+        <v>242.44499999999999</v>
       </c>
       <c r="D27">
-        <v>677.76</v>
+        <v>975.08100000000002</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>338.18099999999998</v>
       </c>
       <c r="F27">
-        <v>493.30500000000001</v>
+        <v>468.72399999999999</v>
       </c>
       <c r="G27">
-        <v>852.57799999999997</v>
+        <v>966.76400000000001</v>
       </c>
       <c r="H27">
-        <v>29814.957999999999</v>
+        <v>17461.357</v>
       </c>
       <c r="I27">
-        <v>549.83600000000001</v>
+        <v>584.92600000000004</v>
       </c>
       <c r="J27">
-        <v>10966.932000000001</v>
+        <v>9333.4429999999993</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-235.54499999999999</v>
+        <v>-911.47699999999998</v>
       </c>
       <c r="N27">
-        <v>555.54499999999996</v>
+        <v>584.92600000000004</v>
       </c>
       <c r="O27">
-        <v>12146.537</v>
+        <v>10537.074000000001</v>
       </c>
       <c r="P27">
-        <v>10966.932000000001</v>
+        <v>9333.4429999999993</v>
       </c>
       <c r="Q27">
-        <v>-411.48700000000002</v>
+        <v>78.715999999999994</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>17668.420999999998</v>
+        <v>6924.2830000000004</v>
       </c>
       <c r="U27">
-        <v>395.82900000000001</v>
+        <v>554.50699999999995</v>
       </c>
       <c r="V27">
-        <v>352.79399999999998</v>
+        <v>284.55</v>
       </c>
       <c r="W27">
-        <v>-235.072</v>
+        <v>-124.117</v>
       </c>
       <c r="X27">
-        <v>-828.928</v>
+        <v>796.41700000000003</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>1.885</v>
+        <v>-6.7089999999999996</v>
       </c>
       <c r="AA27">
-        <v>204.929</v>
+        <v>242.44499999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>268.61700000000002</v>
+        <v>406.46100000000001</v>
       </c>
       <c r="D28">
-        <v>834.779</v>
+        <v>1005.245</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>363.93299999999999</v>
       </c>
       <c r="F28">
-        <v>634.99900000000002</v>
+        <v>453.50900000000001</v>
       </c>
       <c r="G28">
-        <v>641.87699999999995</v>
+        <v>1350.251</v>
       </c>
       <c r="H28">
-        <v>30150.395</v>
+        <v>18104.427</v>
       </c>
       <c r="I28">
-        <v>554.77499999999998</v>
+        <v>620.9</v>
       </c>
       <c r="J28">
-        <v>11081.922</v>
+        <v>9563.1530000000002</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>561.05600000000004</v>
+        <v>620.9</v>
       </c>
       <c r="O28">
-        <v>12290.156999999999</v>
+        <v>10870.696</v>
       </c>
       <c r="P28">
-        <v>11081.922</v>
+        <v>9563.1530000000002</v>
       </c>
       <c r="Q28">
-        <v>-124.47499999999999</v>
+        <v>387.697</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>17860.238000000001</v>
+        <v>7233.7309999999998</v>
       </c>
       <c r="U28">
-        <v>271.35399999999998</v>
+        <v>942.20399999999995</v>
       </c>
       <c r="V28">
-        <v>392.36599999999999</v>
+        <v>305.464</v>
       </c>
       <c r="W28">
-        <v>-235.72</v>
+        <v>-124.477</v>
       </c>
       <c r="X28">
-        <v>-297.423</v>
+        <v>120.991</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-13.102</v>
+        <v>-6.2949999999999999</v>
       </c>
       <c r="AA28">
-        <v>268.61700000000002</v>
+        <v>406.46100000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>877.89300000000003</v>
+        <v>305.798</v>
       </c>
       <c r="D29">
-        <v>657.94</v>
+        <v>3511.52</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>400.99299999999999</v>
       </c>
       <c r="F29">
-        <v>493.209</v>
+        <v>525.83100000000002</v>
       </c>
       <c r="G29">
-        <v>890.63099999999997</v>
+        <v>2692.5619999999999</v>
       </c>
       <c r="H29">
-        <v>29654.15</v>
+        <v>18651.072</v>
       </c>
       <c r="I29">
-        <v>707.04899999999998</v>
+        <v>790.79100000000005</v>
       </c>
       <c r="J29">
-        <v>9721.0650000000005</v>
+        <v>9574.6350000000002</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>714.43799999999999</v>
+        <v>790.79100000000005</v>
       </c>
       <c r="O29">
-        <v>11094.894</v>
+        <v>11140.125</v>
       </c>
       <c r="P29">
-        <v>9721.0650000000005</v>
+        <v>9574.6350000000002</v>
       </c>
       <c r="Q29">
-        <v>297.37200000000001</v>
+        <v>-391.93200000000002</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>18559.256000000001</v>
+        <v>7510.9470000000001</v>
       </c>
       <c r="U29">
-        <v>568.726</v>
+        <v>550.27200000000005</v>
       </c>
       <c r="V29">
-        <v>615.15300000000002</v>
+        <v>442.50700000000001</v>
       </c>
       <c r="W29">
-        <v>-236.46799999999999</v>
+        <v>-124.623</v>
       </c>
       <c r="X29">
-        <v>-830.93600000000004</v>
+        <v>1006.035</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-89.48</v>
+        <v>-455.28699999999998</v>
       </c>
       <c r="AA29">
-        <v>877.89300000000003</v>
+        <v>305.798</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>300.88600000000002</v>
+        <v>119.636</v>
       </c>
       <c r="D30">
-        <v>696.22199999999998</v>
+        <v>796.07799999999997</v>
       </c>
       <c r="E30">
-        <v>85.117999999999995</v>
+        <v>340.03899999999999</v>
       </c>
       <c r="F30">
-        <v>520.524</v>
+        <v>313.14400000000001</v>
       </c>
       <c r="G30">
-        <v>1149.547</v>
+        <v>1047.2149999999999</v>
       </c>
       <c r="H30">
-        <v>29481.075000000001</v>
+        <v>19724.034</v>
       </c>
       <c r="I30">
-        <v>702.80399999999997</v>
+        <v>933.07500000000005</v>
       </c>
       <c r="J30">
-        <v>9412.6309999999994</v>
+        <v>10506.067999999999</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>827.83</v>
+        <v>1199.4090000000001</v>
       </c>
       <c r="O30">
-        <v>10775.334000000001</v>
+        <v>12208.975</v>
       </c>
       <c r="P30">
-        <v>9412.6309999999994</v>
+        <v>10506.067999999999</v>
       </c>
       <c r="Q30">
-        <v>-121.68</v>
+        <v>-150.36199999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>1565</v>
+        <v>1535</v>
       </c>
       <c r="T30">
-        <v>18705.741000000002</v>
+        <v>7515.0590000000002</v>
       </c>
       <c r="U30">
-        <v>447.04599999999999</v>
+        <v>399.91</v>
       </c>
       <c r="V30">
-        <v>326.93299999999999</v>
+        <v>173.434</v>
       </c>
       <c r="W30">
-        <v>-235.624</v>
+        <v>-131.209</v>
       </c>
       <c r="X30">
-        <v>-649.29700000000003</v>
+        <v>818.245</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>60.113</v>
+        <v>-143.262</v>
       </c>
       <c r="AA30">
-        <v>300.88600000000002</v>
+        <v>119.636</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>367.37799999999999</v>
+        <v>189.875</v>
       </c>
       <c r="D31">
-        <v>756.31200000000001</v>
+        <v>1611.9110000000001</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>373.93</v>
       </c>
       <c r="F31">
-        <v>569.51099999999997</v>
+        <v>451.839</v>
       </c>
       <c r="G31">
-        <v>933.38</v>
+        <v>1275.538</v>
       </c>
       <c r="H31">
-        <v>29671.485000000001</v>
+        <v>20629.167000000001</v>
       </c>
       <c r="I31">
-        <v>692.85299999999995</v>
+        <v>913.73099999999999</v>
       </c>
       <c r="J31">
-        <v>9460.1769999999997</v>
+        <v>11096.922</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-696.01099999999997</v>
+        <v>-177.786</v>
       </c>
       <c r="N31">
-        <v>698.18799999999999</v>
+        <v>922.63099999999997</v>
       </c>
       <c r="O31">
-        <v>10883.365</v>
+        <v>12816.209000000001</v>
       </c>
       <c r="P31">
-        <v>9460.1769999999997</v>
+        <v>11096.922</v>
       </c>
       <c r="Q31">
-        <v>11.053000000000001</v>
+        <v>481.40300000000002</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>18788.12</v>
+        <v>7812.9579999999996</v>
       </c>
       <c r="U31">
-        <v>458.09899999999999</v>
+        <v>901.60799999999995</v>
       </c>
       <c r="V31">
-        <v>349.24099999999999</v>
+        <v>354.90600000000001</v>
       </c>
       <c r="W31">
-        <v>-257.68700000000001</v>
+        <v>-140.001</v>
       </c>
       <c r="X31">
-        <v>-495.96899999999999</v>
+        <v>401.15899999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>59.08</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="AA31">
-        <v>367.37799999999999</v>
+        <v>189.875</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>336.08699999999999</v>
+        <v>212.71600000000001</v>
       </c>
       <c r="D32">
-        <v>683.82500000000005</v>
+        <v>1530.847</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>349.791</v>
       </c>
       <c r="F32">
-        <v>515.64599999999996</v>
+        <v>429.5</v>
       </c>
       <c r="G32">
-        <v>1431.8420000000001</v>
+        <v>880.005</v>
       </c>
       <c r="H32">
-        <v>29502.882000000001</v>
+        <v>20472.773000000001</v>
       </c>
       <c r="I32">
-        <v>719.67899999999997</v>
+        <v>874.46199999999999</v>
       </c>
       <c r="J32">
-        <v>9427.1239999999998</v>
+        <v>10789.2</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>755.22799999999995</v>
+        <v>874.46199999999999</v>
       </c>
       <c r="O32">
-        <v>10776.379000000001</v>
+        <v>12426.829</v>
       </c>
       <c r="P32">
-        <v>9427.6790000000001</v>
+        <v>10789.2</v>
       </c>
       <c r="Q32">
-        <v>69.730999999999995</v>
+        <v>-357.46699999999998</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>18726.503000000001</v>
+        <v>8045.9440000000004</v>
       </c>
       <c r="U32">
-        <v>527.83000000000004</v>
+        <v>523.846</v>
       </c>
       <c r="V32">
-        <v>423.983</v>
+        <v>181.38900000000001</v>
       </c>
       <c r="W32">
-        <v>-257.55799999999999</v>
+        <v>-150.32</v>
       </c>
       <c r="X32">
-        <v>-4.2750000000000004</v>
+        <v>-222.32900000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-7.69</v>
+        <v>-32.014000000000003</v>
       </c>
       <c r="AA32">
-        <v>336.08699999999999</v>
+        <v>212.71600000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>347.83600000000001</v>
+        <v>38.485999999999997</v>
       </c>
       <c r="D33">
-        <v>739.06600000000003</v>
+        <v>1012.016</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>301.11599999999999</v>
       </c>
       <c r="F33">
-        <v>556.49199999999996</v>
+        <v>279.82799999999997</v>
       </c>
       <c r="G33">
-        <v>1060.18</v>
+        <v>643.69000000000005</v>
       </c>
       <c r="H33">
-        <v>38268.161999999997</v>
+        <v>20467.062999999998</v>
       </c>
       <c r="I33">
-        <v>873.41200000000003</v>
+        <v>925.36500000000001</v>
       </c>
       <c r="J33">
-        <v>11232.129000000001</v>
+        <v>11097.901</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>904.05799999999999</v>
+        <v>925.36500000000001</v>
       </c>
       <c r="O33">
-        <v>12830.507</v>
+        <v>12783.191000000001</v>
       </c>
       <c r="P33">
-        <v>11232.582</v>
+        <v>11097.901</v>
       </c>
       <c r="Q33">
-        <v>-252.268</v>
+        <v>-182.75899999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>25437.654999999999</v>
+        <v>7683.8720000000003</v>
       </c>
       <c r="U33">
-        <v>275.56200000000001</v>
+        <v>341.08699999999999</v>
       </c>
       <c r="V33">
-        <v>500.69400000000002</v>
+        <v>159.29400000000001</v>
       </c>
       <c r="W33">
-        <v>-304.33100000000002</v>
+        <v>-142.98599999999999</v>
       </c>
       <c r="X33">
-        <v>-288.84699999999998</v>
+        <v>336.798</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>7.2050000000000001</v>
+        <v>-21.645</v>
       </c>
       <c r="AA33">
-        <v>347.83600000000001</v>
+        <v>38.485999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>598.05999999999995</v>
+        <v>-894.88</v>
       </c>
       <c r="D34">
-        <v>923.50599999999997</v>
+        <v>1355.4349999999999</v>
       </c>
       <c r="E34">
-        <v>107.14100000000001</v>
+        <v>244.77799999999999</v>
       </c>
       <c r="F34">
-        <v>703.37199999999996</v>
+        <v>180.24199999999999</v>
       </c>
       <c r="G34">
-        <v>1336.982</v>
+        <v>1980.875</v>
       </c>
       <c r="H34">
-        <v>38417.663999999997</v>
+        <v>19269.127</v>
       </c>
       <c r="I34">
-        <v>760.51499999999999</v>
+        <v>658.86800000000005</v>
       </c>
       <c r="J34">
-        <v>11089.815000000001</v>
+        <v>10711.368</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>941.31200000000001</v>
+        <v>1037.0650000000001</v>
       </c>
       <c r="O34">
-        <v>12616.776</v>
+        <v>12511.358</v>
       </c>
       <c r="P34">
-        <v>11090.243</v>
+        <v>10711.368</v>
       </c>
       <c r="Q34">
-        <v>68.293999999999997</v>
+        <v>-166.45099999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>1617</v>
+        <v>1480</v>
       </c>
       <c r="T34">
-        <v>25800.887999999999</v>
+        <v>6757.7690000000002</v>
       </c>
       <c r="U34">
-        <v>343.85599999999999</v>
+        <v>174.636</v>
       </c>
       <c r="V34">
-        <v>529.64099999999996</v>
+        <v>188.642</v>
       </c>
       <c r="W34">
-        <v>-303.791</v>
+        <v>-134.90799999999999</v>
       </c>
       <c r="X34">
-        <v>-443.01</v>
+        <v>-157.52500000000001</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>141.32499999999999</v>
+        <v>-151.26900000000001</v>
       </c>
       <c r="AA34">
-        <v>598.05999999999995</v>
+        <v>-894.88</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>348.54599999999999</v>
+        <v>185.101</v>
       </c>
       <c r="D35">
-        <v>828.71799999999996</v>
+        <v>437.05500000000001</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>155.066</v>
       </c>
       <c r="F35">
-        <v>602.59199999999998</v>
+        <v>359.68400000000003</v>
       </c>
       <c r="G35">
-        <v>1175.4269999999999</v>
+        <v>400.42700000000002</v>
       </c>
       <c r="H35">
-        <v>38392.112000000001</v>
+        <v>17336.859</v>
       </c>
       <c r="I35">
-        <v>695.76099999999997</v>
+        <v>702.93399999999997</v>
       </c>
       <c r="J35">
-        <v>10706.138999999999</v>
+        <v>9327.7369999999992</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-1443.0029999999999</v>
+        <v>-1087.2239999999999</v>
       </c>
       <c r="N35">
-        <v>711.947</v>
+        <v>702.93399999999997</v>
       </c>
       <c r="O35">
-        <v>12568.050999999999</v>
+        <v>10795.379000000001</v>
       </c>
       <c r="P35">
-        <v>11098.887000000001</v>
+        <v>9327.7369999999992</v>
       </c>
       <c r="Q35">
-        <v>-92.825999999999993</v>
+        <v>-50.856999999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>25824.061000000002</v>
+        <v>6541.48</v>
       </c>
       <c r="U35">
-        <v>251.03</v>
+        <v>123.779</v>
       </c>
       <c r="V35">
-        <v>494.91399999999999</v>
+        <v>184.32300000000001</v>
       </c>
       <c r="W35">
-        <v>-336.09399999999999</v>
+        <v>-73.254000000000005</v>
       </c>
       <c r="X35">
-        <v>-748.63400000000001</v>
+        <v>-1160.3030000000001</v>
       </c>
       <c r="Y35">
-        <v>392.34100000000001</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>279.98</v>
+        <v>451.09199999999998</v>
       </c>
       <c r="AA35">
-        <v>348.54599999999999</v>
+        <v>185.101</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>385.27600000000001</v>
+        <v>245.23400000000001</v>
       </c>
       <c r="D36">
-        <v>838.928</v>
+        <v>277.21899999999999</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>153.922</v>
       </c>
       <c r="F36">
-        <v>620.58399999999995</v>
+        <v>197.51599999999999</v>
       </c>
       <c r="G36">
-        <v>1040.82</v>
+        <v>228.10499999999999</v>
       </c>
       <c r="H36">
-        <v>38706.75</v>
+        <v>17194.847000000002</v>
       </c>
       <c r="I36">
-        <v>740.94100000000003</v>
+        <v>544.846</v>
       </c>
       <c r="J36">
-        <v>10968.32</v>
+        <v>7886.0249999999996</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>758.33299999999997</v>
+        <v>544.846</v>
       </c>
       <c r="O36">
-        <v>12929.316999999999</v>
+        <v>9085.2129999999997</v>
       </c>
       <c r="P36">
-        <v>11371.919</v>
+        <v>7886.0249999999996</v>
       </c>
       <c r="Q36">
-        <v>150.16</v>
+        <v>-49.595999999999997</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>25777.433000000001</v>
+        <v>8109.634</v>
       </c>
       <c r="U36">
-        <v>401.19</v>
+        <v>74.183000000000007</v>
       </c>
       <c r="V36">
-        <v>508.60700000000003</v>
+        <v>-43.365000000000002</v>
       </c>
       <c r="W36">
-        <v>-336.26900000000001</v>
+        <v>-72.745999999999995</v>
       </c>
       <c r="X36">
-        <v>-285.26600000000002</v>
+        <v>-434.16800000000001</v>
       </c>
       <c r="Y36">
-        <v>403.17</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-106.85299999999999</v>
+        <v>-22.806000000000001</v>
       </c>
       <c r="AA36">
-        <v>385.27600000000001</v>
+        <v>245.23400000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>452.14600000000002</v>
+        <v>-5.4189999999999996</v>
       </c>
       <c r="D37">
-        <v>988.48299999999995</v>
+        <v>280.23700000000002</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>147.92099999999999</v>
       </c>
       <c r="F37">
-        <v>744.21500000000003</v>
+        <v>202.18899999999999</v>
       </c>
       <c r="G37">
-        <v>1864.12</v>
+        <v>189.46299999999999</v>
       </c>
       <c r="H37">
-        <v>39448.184999999998</v>
+        <v>17446.282999999999</v>
       </c>
       <c r="I37">
-        <v>808.89800000000002</v>
+        <v>611.20799999999997</v>
       </c>
       <c r="J37">
-        <v>11459.223</v>
+        <v>7706.1049999999996</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>846.22</v>
+        <v>611.40800000000002</v>
       </c>
       <c r="O37">
-        <v>13512.608</v>
+        <v>8874.4699999999993</v>
       </c>
       <c r="P37">
-        <v>11891.641</v>
+        <v>7706.3050000000003</v>
       </c>
       <c r="Q37">
-        <v>623.80399999999997</v>
+        <v>-32.640999999999998</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>25935.577000000001</v>
+        <v>8571.8130000000001</v>
       </c>
       <c r="U37">
-        <v>1024.9939999999999</v>
+        <v>41.542000000000002</v>
       </c>
       <c r="V37">
-        <v>644.13900000000001</v>
+        <v>80.054000000000002</v>
       </c>
       <c r="W37">
-        <v>-336.59899999999999</v>
+        <v>-73.891999999999996</v>
       </c>
       <c r="X37">
-        <v>350.52300000000002</v>
+        <v>-32.344999999999999</v>
       </c>
       <c r="Y37">
-        <v>432.12200000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-69.748000000000005</v>
+        <v>-126.476</v>
       </c>
       <c r="AA37">
-        <v>452.14600000000002</v>
+        <v>-5.4189999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>386.99099999999999</v>
+        <v>-402.14299999999997</v>
       </c>
       <c r="D38">
-        <v>874.67</v>
+        <v>88.426000000000002</v>
       </c>
       <c r="E38">
-        <v>85.834999999999994</v>
+        <v>42.116999999999997</v>
       </c>
       <c r="F38">
-        <v>644.48099999999999</v>
+        <v>56.223999999999997</v>
       </c>
       <c r="G38">
-        <v>2174.5479999999998</v>
+        <v>440.93</v>
       </c>
       <c r="H38">
-        <v>40031.85</v>
+        <v>16796.895</v>
       </c>
       <c r="I38">
-        <v>704.95399999999995</v>
+        <v>367.399</v>
       </c>
       <c r="J38">
-        <v>11905.877</v>
+        <v>7977.7780000000002</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>910.06399999999996</v>
+        <v>563.69100000000003</v>
       </c>
       <c r="O38">
-        <v>13960.066000000001</v>
+        <v>8789.6090000000004</v>
       </c>
       <c r="P38">
-        <v>12377.511</v>
+        <v>7977.7780000000002</v>
       </c>
       <c r="Q38">
-        <v>63.860999999999997</v>
+        <v>-7.18</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>1712</v>
+        <v>1135</v>
       </c>
       <c r="T38">
-        <v>26071.784</v>
+        <v>8007.2860000000001</v>
       </c>
       <c r="U38">
-        <v>1088.855</v>
+        <v>34.362000000000002</v>
       </c>
       <c r="V38">
-        <v>616.37400000000002</v>
+        <v>-131.917</v>
       </c>
       <c r="W38">
-        <v>-336.69799999999998</v>
+        <v>-77.369</v>
       </c>
       <c r="X38">
-        <v>-156.22200000000001</v>
+        <v>164.18</v>
       </c>
       <c r="Y38">
-        <v>471.63400000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>9.9149999999999991</v>
+        <v>-121.98</v>
       </c>
       <c r="AA38">
-        <v>386.99099999999999</v>
+        <v>-402.14299999999997</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>491.053</v>
+        <v>-84.76</v>
       </c>
       <c r="D39">
-        <v>1066.971</v>
+        <v>225.256</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>153.036</v>
       </c>
       <c r="F39">
-        <v>792.779</v>
+        <v>158.673</v>
       </c>
       <c r="G39">
-        <v>2841.0349999999999</v>
+        <v>208.91399999999999</v>
       </c>
       <c r="H39">
-        <v>55007.247000000003</v>
+        <v>16765.476999999999</v>
       </c>
       <c r="I39">
-        <v>888.34100000000001</v>
+        <v>435.93099999999998</v>
       </c>
       <c r="J39">
-        <v>15676.592000000001</v>
+        <v>8112.7120000000004</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-4190.241</v>
+        <v>-1552.845</v>
       </c>
       <c r="N39">
-        <v>936.35</v>
+        <v>436.33100000000002</v>
       </c>
       <c r="O39">
-        <v>18231.377</v>
+        <v>9022.6640000000007</v>
       </c>
       <c r="P39">
-        <v>16174.704</v>
+        <v>8113.1120000000001</v>
       </c>
       <c r="Q39">
-        <v>-280.98399999999998</v>
+        <v>21.515999999999998</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>36775.870000000003</v>
+        <v>7742.8130000000001</v>
       </c>
       <c r="U39">
-        <v>807.87099999999998</v>
+        <v>55.878</v>
       </c>
       <c r="V39">
-        <v>679.09299999999996</v>
+        <v>10.909000000000001</v>
       </c>
       <c r="W39">
-        <v>-430.76600000000002</v>
+        <v>-78.066999999999993</v>
       </c>
       <c r="X39">
-        <v>1050.4110000000001</v>
+        <v>22.396000000000001</v>
       </c>
       <c r="Y39">
-        <v>498.11200000000002</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-111.773</v>
+        <v>-100.01300000000001</v>
       </c>
       <c r="AA39">
-        <v>491.053</v>
+        <v>-84.76</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>406.173</v>
+        <v>-16.780999999999999</v>
       </c>
       <c r="D40">
-        <v>1320.2660000000001</v>
+        <v>222.45</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>153.19300000000001</v>
       </c>
       <c r="F40">
-        <v>1006.612</v>
+        <v>158.43</v>
       </c>
       <c r="G40">
-        <v>2542.136</v>
+        <v>178.29499999999999</v>
       </c>
       <c r="H40">
-        <v>55221.857000000004</v>
+        <v>16398.478999999999</v>
       </c>
       <c r="I40">
-        <v>1140.569</v>
+        <v>396.98500000000001</v>
       </c>
       <c r="J40">
-        <v>15666.871999999999</v>
+        <v>8176.1779999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1192.6189999999999</v>
+        <v>397.685</v>
       </c>
       <c r="O40">
-        <v>18475.648000000001</v>
+        <v>9039.1129999999994</v>
       </c>
       <c r="P40">
-        <v>16155.743</v>
+        <v>8176.8779999999997</v>
       </c>
       <c r="Q40">
-        <v>-258.74200000000002</v>
+        <v>-30.776</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>36746.209000000003</v>
+        <v>7359.366</v>
       </c>
       <c r="U40">
-        <v>549.12900000000002</v>
+        <v>25.102</v>
       </c>
       <c r="V40">
-        <v>676.25599999999997</v>
+        <v>91.813999999999993</v>
       </c>
       <c r="W40">
-        <v>-430.971</v>
+        <v>-78.456000000000003</v>
       </c>
       <c r="X40">
-        <v>-696.048</v>
+        <v>-5.8490000000000002</v>
       </c>
       <c r="Y40">
-        <v>488.55</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-33.584000000000003</v>
+        <v>-9.3239999999999998</v>
       </c>
       <c r="AA40">
-        <v>406.173</v>
+        <v>-16.780999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>302.69400000000002</v>
+        <v>-8.6829999999999998</v>
       </c>
       <c r="D41">
-        <v>1156.7449999999999</v>
+        <v>237.839</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>123.18600000000001</v>
       </c>
       <c r="F41">
-        <v>865.46400000000006</v>
+        <v>171.47900000000001</v>
       </c>
       <c r="G41">
-        <v>2716.3939999999998</v>
+        <v>140.98500000000001</v>
       </c>
       <c r="H41">
-        <v>55759.597999999998</v>
+        <v>16769.919000000002</v>
       </c>
       <c r="I41">
-        <v>1119.124</v>
+        <v>395.18099999999998</v>
       </c>
       <c r="J41">
-        <v>16518.126</v>
+        <v>8170.0320000000002</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1165.5119999999999</v>
+        <v>397.28100000000001</v>
       </c>
       <c r="O41">
-        <v>19270.291000000001</v>
+        <v>9086.8369999999995</v>
       </c>
       <c r="P41">
-        <v>16966.893</v>
+        <v>8172.1319999999996</v>
       </c>
       <c r="Q41">
-        <v>391.06400000000002</v>
+        <v>-7.3029999999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>36489.307000000001</v>
+        <v>7683.0820000000003</v>
       </c>
       <c r="U41">
-        <v>940.19299999999998</v>
+        <v>17.798999999999999</v>
       </c>
       <c r="V41">
-        <v>977.98599999999999</v>
+        <v>121.876</v>
       </c>
       <c r="W41">
-        <v>-430.589</v>
+        <v>-78.462000000000003</v>
       </c>
       <c r="X41">
-        <v>-260.32499999999999</v>
+        <v>-168.33500000000001</v>
       </c>
       <c r="Y41">
-        <v>448.53399999999999</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>6.7880000000000003</v>
+        <v>-78.731999999999999</v>
       </c>
       <c r="AA41">
-        <v>302.69400000000002</v>
+        <v>-8.6829999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-1160.2719999999999</v>
+      </c>
+      <c r="D42">
+        <v>222.572</v>
+      </c>
+      <c r="E42">
+        <v>58.978999999999999</v>
+      </c>
+      <c r="F42">
+        <v>162.99100000000001</v>
+      </c>
+      <c r="G42">
+        <v>1000.629</v>
+      </c>
+      <c r="H42">
+        <v>14902.666999999999</v>
+      </c>
+      <c r="I42">
+        <v>387.13600000000002</v>
+      </c>
+      <c r="J42">
+        <v>6506.0290000000005</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>578.94399999999996</v>
+      </c>
+      <c r="O42">
+        <v>7382.3119999999999</v>
+      </c>
+      <c r="P42">
+        <v>6507.4290000000001</v>
+      </c>
+      <c r="Q42">
+        <v>19.835000000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>1100</v>
+      </c>
+      <c r="T42">
+        <v>7520.3549999999996</v>
+      </c>
+      <c r="U42">
+        <v>37.634</v>
+      </c>
+      <c r="V42">
+        <v>16.184000000000001</v>
+      </c>
+      <c r="W42">
+        <v>-71.088999999999999</v>
+      </c>
+      <c r="X42">
+        <v>-817.97400000000005</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>72.867999999999995</v>
+      </c>
+      <c r="AA42">
+        <v>-1160.2719999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-40.247</v>
+      </c>
+      <c r="D43">
+        <v>242.435</v>
+      </c>
+      <c r="E43">
+        <v>95.537999999999997</v>
+      </c>
+      <c r="F43">
+        <v>171.685</v>
+      </c>
+      <c r="G43">
+        <v>728.40700000000004</v>
+      </c>
+      <c r="H43">
+        <v>14935.695</v>
+      </c>
+      <c r="I43">
+        <v>393.86200000000002</v>
+      </c>
+      <c r="J43">
+        <v>6415.0339999999997</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-286.16800000000001</v>
+      </c>
+      <c r="N43">
+        <v>397.32600000000002</v>
+      </c>
+      <c r="O43">
+        <v>7309.3059999999996</v>
+      </c>
+      <c r="P43">
+        <v>6416.0339999999997</v>
+      </c>
+      <c r="Q43">
+        <v>-12.89</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>7626.3890000000001</v>
+      </c>
+      <c r="U43">
+        <v>24.744</v>
+      </c>
+      <c r="V43">
+        <v>2.5619999999999998</v>
+      </c>
+      <c r="W43">
+        <v>-70.397000000000006</v>
+      </c>
+      <c r="X43">
+        <v>-195.155</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>50.021999999999998</v>
+      </c>
+      <c r="AA43">
+        <v>-40.247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>-143.82900000000001</v>
+      </c>
+      <c r="D44">
+        <v>321.85000000000002</v>
+      </c>
+      <c r="E44">
+        <v>197.47499999999999</v>
+      </c>
+      <c r="F44">
+        <v>236.32300000000001</v>
+      </c>
+      <c r="G44">
+        <v>1290.0709999999999</v>
+      </c>
+      <c r="H44">
+        <v>29134.506000000001</v>
+      </c>
+      <c r="I44">
+        <v>619.27800000000002</v>
+      </c>
+      <c r="J44">
+        <v>11972.277</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>971.88</v>
+      </c>
+      <c r="O44">
+        <v>14064.261</v>
+      </c>
+      <c r="P44">
+        <v>12140.552</v>
+      </c>
+      <c r="Q44">
+        <v>236.149</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>15070.245000000001</v>
+      </c>
+      <c r="U44">
+        <v>260.89299999999997</v>
+      </c>
+      <c r="V44">
+        <v>-18.459</v>
+      </c>
+      <c r="W44">
+        <v>-71.340999999999994</v>
+      </c>
+      <c r="X44">
+        <v>1080.549</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>18.562999999999999</v>
+      </c>
+      <c r="AA44">
+        <v>-143.82900000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>65.844999999999999</v>
+      </c>
+      <c r="D45">
+        <v>500.11200000000002</v>
+      </c>
+      <c r="E45">
+        <v>216.423</v>
+      </c>
+      <c r="F45">
+        <v>363.08300000000003</v>
+      </c>
+      <c r="G45">
+        <v>1187.617</v>
+      </c>
+      <c r="H45">
+        <v>28586.304</v>
+      </c>
+      <c r="I45">
+        <v>540.44399999999996</v>
+      </c>
+      <c r="J45">
+        <v>12058.502</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>804.11599999999999</v>
+      </c>
+      <c r="O45">
+        <v>13984.338</v>
+      </c>
+      <c r="P45">
+        <v>12177.377</v>
+      </c>
+      <c r="Q45">
+        <v>-44.143999999999998</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>14601.966</v>
+      </c>
+      <c r="U45">
+        <v>216.749</v>
+      </c>
+      <c r="V45">
+        <v>120.84399999999999</v>
+      </c>
+      <c r="W45">
+        <v>-138.459</v>
+      </c>
+      <c r="X45">
+        <v>-11.375</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>36.119</v>
+      </c>
+      <c r="AA45">
+        <v>65.844999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-35.183</v>
+      </c>
+      <c r="D46">
+        <v>446.86500000000001</v>
+      </c>
+      <c r="E46">
+        <v>147.999</v>
+      </c>
+      <c r="F46">
+        <v>326.64999999999998</v>
+      </c>
+      <c r="G46">
+        <v>1384.8219999999999</v>
+      </c>
+      <c r="H46">
+        <v>27723.912</v>
+      </c>
+      <c r="I46">
+        <v>610.99</v>
+      </c>
+      <c r="J46">
+        <v>11382.407999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1343.55</v>
+      </c>
+      <c r="O46">
+        <v>13268.438</v>
+      </c>
+      <c r="P46">
+        <v>11410.907999999999</v>
+      </c>
+      <c r="Q46">
+        <v>-40.677</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>1457</v>
+      </c>
+      <c r="T46">
+        <v>14455.474</v>
+      </c>
+      <c r="U46">
+        <v>176.072</v>
+      </c>
+      <c r="V46">
+        <v>102.117</v>
+      </c>
+      <c r="W46">
+        <v>-133.90100000000001</v>
+      </c>
+      <c r="X46">
+        <v>-710.70100000000002</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>27.699000000000002</v>
+      </c>
+      <c r="AA46">
+        <v>-35.183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>212.97900000000001</v>
+      </c>
+      <c r="D47">
+        <v>491.863</v>
+      </c>
+      <c r="E47">
+        <v>163.679</v>
+      </c>
+      <c r="F47">
+        <v>356.74900000000002</v>
+      </c>
+      <c r="G47">
+        <v>948.79600000000005</v>
+      </c>
+      <c r="H47">
+        <v>28867.953000000001</v>
+      </c>
+      <c r="I47">
+        <v>641.58399999999995</v>
+      </c>
+      <c r="J47">
+        <v>11711.921</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-979.32100000000003</v>
+      </c>
+      <c r="N47">
+        <v>2041.8320000000001</v>
+      </c>
+      <c r="O47">
+        <v>14317.293</v>
+      </c>
+      <c r="P47">
+        <v>12413.421</v>
+      </c>
+      <c r="Q47">
+        <v>167.66399999999999</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>14550.66</v>
+      </c>
+      <c r="U47">
+        <v>343.73599999999999</v>
+      </c>
+      <c r="V47">
+        <v>71.435000000000002</v>
+      </c>
+      <c r="W47">
+        <v>-145.601</v>
+      </c>
+      <c r="X47">
+        <v>-80.218000000000004</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>2.847</v>
+      </c>
+      <c r="AA47">
+        <v>212.98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>1.93</v>
+      </c>
+      <c r="D48">
+        <v>500.18900000000002</v>
+      </c>
+      <c r="E48">
+        <v>168.00800000000001</v>
+      </c>
+      <c r="F48">
+        <v>360.49400000000003</v>
+      </c>
+      <c r="G48">
+        <v>909.149</v>
+      </c>
+      <c r="H48">
+        <v>28415.562999999998</v>
+      </c>
+      <c r="I48">
+        <v>564.11900000000003</v>
+      </c>
+      <c r="J48">
+        <v>12366.584999999999</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1311.65</v>
+      </c>
+      <c r="O48">
+        <v>14245.995999999999</v>
+      </c>
+      <c r="P48">
+        <v>12469.485000000001</v>
+      </c>
+      <c r="Q48">
+        <v>-50.104999999999997</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>14169.566999999999</v>
+      </c>
+      <c r="U48">
+        <v>293.63099999999997</v>
+      </c>
+      <c r="V48">
+        <v>88.67</v>
+      </c>
+      <c r="W48">
+        <v>-141.285</v>
+      </c>
+      <c r="X48">
+        <v>-159.68299999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>155.62100000000001</v>
+      </c>
+      <c r="AA48">
+        <v>1.929</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-36.220999999999997</v>
+      </c>
+      <c r="D49">
+        <v>502.02499999999998</v>
+      </c>
+      <c r="E49">
+        <v>181.85499999999999</v>
+      </c>
+      <c r="F49">
+        <v>359.86399999999998</v>
+      </c>
+      <c r="G49">
+        <v>1133.1790000000001</v>
+      </c>
+      <c r="H49">
+        <v>28576.421999999999</v>
+      </c>
+      <c r="I49">
+        <v>589.07299999999998</v>
+      </c>
+      <c r="J49">
+        <v>12535.06</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1296.143</v>
+      </c>
+      <c r="O49">
+        <v>14401.901</v>
+      </c>
+      <c r="P49">
+        <v>12614.86</v>
+      </c>
+      <c r="Q49">
+        <v>-135.44300000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>14174.521000000001</v>
+      </c>
+      <c r="U49">
+        <v>158.18799999999999</v>
+      </c>
+      <c r="V49">
+        <v>213.24299999999999</v>
+      </c>
+      <c r="W49">
+        <v>-139.542</v>
+      </c>
+      <c r="X49">
+        <v>-105.977</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>9.109</v>
+      </c>
+      <c r="AA49">
+        <v>-36.220999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>-218.40799999999999</v>
+      </c>
+      <c r="D50">
+        <v>498.11700000000002</v>
+      </c>
+      <c r="E50">
+        <v>171.084</v>
+      </c>
+      <c r="F50">
+        <v>360.02800000000002</v>
+      </c>
+      <c r="G50">
+        <v>912.52800000000002</v>
+      </c>
+      <c r="H50">
+        <v>27310.145</v>
+      </c>
+      <c r="I50">
+        <v>566.27</v>
+      </c>
+      <c r="J50">
+        <v>11790.794</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1154.68</v>
+      </c>
+      <c r="O50">
+        <v>13536.808999999999</v>
+      </c>
+      <c r="P50">
+        <v>11818.794</v>
+      </c>
+      <c r="Q50">
+        <v>-57.378</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>1445</v>
+      </c>
+      <c r="T50">
+        <v>13773.335999999999</v>
+      </c>
+      <c r="U50">
+        <v>100.81</v>
+      </c>
+      <c r="V50">
+        <v>90.144000000000005</v>
+      </c>
+      <c r="W50">
+        <v>-141.40600000000001</v>
+      </c>
+      <c r="X50">
+        <v>-725.63300000000004</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-406.065</v>
+      </c>
+      <c r="AA50">
+        <v>-218.40799999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>284.82900000000001</v>
+      </c>
+      <c r="D51">
+        <v>504.73899999999998</v>
+      </c>
+      <c r="E51">
+        <v>139.691</v>
+      </c>
+      <c r="F51">
+        <v>354.476</v>
+      </c>
+      <c r="G51">
+        <v>1198.9459999999999</v>
+      </c>
+      <c r="H51">
+        <v>24075.298999999999</v>
+      </c>
+      <c r="I51">
+        <v>581.13400000000001</v>
+      </c>
+      <c r="J51">
+        <v>8756.6229999999996</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-2127.5830000000001</v>
+      </c>
+      <c r="N51">
+        <v>1671.367</v>
+      </c>
+      <c r="O51">
+        <v>10864.766</v>
+      </c>
+      <c r="P51">
+        <v>9564.5229999999992</v>
+      </c>
+      <c r="Q51">
+        <v>684.54899999999998</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>13210.532999999999</v>
+      </c>
+      <c r="U51">
+        <v>785.35900000000004</v>
+      </c>
+      <c r="V51">
+        <v>129.13999999999999</v>
+      </c>
+      <c r="W51">
+        <v>-140.52799999999999</v>
+      </c>
+      <c r="X51">
+        <v>-2261.8649999999998</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-175.56700000000001</v>
+      </c>
+      <c r="AA51">
+        <v>284.82900000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>2.2989999999999999</v>
+      </c>
+      <c r="D52">
+        <v>419.11399999999998</v>
+      </c>
+      <c r="E52">
+        <v>124.98</v>
+      </c>
+      <c r="F52">
+        <v>284.27100000000002</v>
+      </c>
+      <c r="G52">
+        <v>764.41200000000003</v>
+      </c>
+      <c r="H52">
+        <v>24037.567999999999</v>
+      </c>
+      <c r="I52">
+        <v>644.78099999999995</v>
+      </c>
+      <c r="J52">
+        <v>8242.31</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1048.5319999999999</v>
+      </c>
+      <c r="O52">
+        <v>9715.0660000000007</v>
+      </c>
+      <c r="P52">
+        <v>8423.61</v>
+      </c>
+      <c r="Q52">
+        <v>-399.935</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>14322.502</v>
+      </c>
+      <c r="U52">
+        <v>385.42399999999998</v>
+      </c>
+      <c r="V52">
+        <v>74.427999999999997</v>
+      </c>
+      <c r="W52">
+        <v>-147.66200000000001</v>
+      </c>
+      <c r="X52">
+        <v>-23.911999999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-275.14299999999997</v>
+      </c>
+      <c r="AA52">
+        <v>2.2989999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>-5.399</v>
+      </c>
+      <c r="D53">
+        <v>449.423</v>
+      </c>
+      <c r="E53">
+        <v>137.87899999999999</v>
+      </c>
+      <c r="F53">
+        <v>320.589</v>
+      </c>
+      <c r="G53">
+        <v>499.98099999999999</v>
+      </c>
+      <c r="H53">
+        <v>24789.543000000001</v>
+      </c>
+      <c r="I53">
+        <v>670.44100000000003</v>
+      </c>
+      <c r="J53">
+        <v>9041.3169999999991</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>990.41099999999994</v>
+      </c>
+      <c r="O53">
+        <v>10526.021000000001</v>
+      </c>
+      <c r="P53">
+        <v>9125.5169999999998</v>
+      </c>
+      <c r="Q53">
+        <v>-263.73099999999999</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>14263.522000000001</v>
+      </c>
+      <c r="U53">
+        <v>121.693</v>
+      </c>
+      <c r="V53">
+        <v>128.68</v>
+      </c>
+      <c r="W53">
+        <v>-142.898</v>
+      </c>
+      <c r="X53">
+        <v>356.66699999999997</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-228.73099999999999</v>
+      </c>
+      <c r="AA53">
+        <v>-5.399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>61.192</v>
+      </c>
+      <c r="D54">
+        <v>474.43</v>
+      </c>
+      <c r="E54">
+        <v>107.955</v>
+      </c>
+      <c r="F54">
+        <v>347.15300000000002</v>
+      </c>
+      <c r="G54">
+        <v>1093.03</v>
+      </c>
+      <c r="H54">
+        <v>24572.307000000001</v>
+      </c>
+      <c r="I54">
+        <v>563.99300000000005</v>
+      </c>
+      <c r="J54">
+        <v>9011.2160000000003</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>900.08500000000004</v>
+      </c>
+      <c r="O54">
+        <v>10395.853999999999</v>
+      </c>
+      <c r="P54">
+        <v>9011.2160000000003</v>
+      </c>
+      <c r="Q54">
+        <v>369.43599999999998</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>14176.453</v>
+      </c>
+      <c r="U54">
+        <v>491.12900000000002</v>
+      </c>
+      <c r="V54">
+        <v>152.74100000000001</v>
+      </c>
+      <c r="W54">
+        <v>-142.76599999999999</v>
+      </c>
+      <c r="X54">
+        <v>-436.512</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-129.86099999999999</v>
+      </c>
+      <c r="AA54">
+        <v>61.192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>6.8010000000000002</v>
+      </c>
+      <c r="D55">
+        <v>464.428</v>
+      </c>
+      <c r="E55">
+        <v>114.88</v>
+      </c>
+      <c r="F55">
+        <v>329.74799999999999</v>
+      </c>
+      <c r="G55">
+        <v>521.41200000000003</v>
+      </c>
+      <c r="H55">
+        <v>24655.148000000001</v>
+      </c>
+      <c r="I55">
+        <v>529.44799999999998</v>
+      </c>
+      <c r="J55">
+        <v>8575.6350000000002</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1317.896</v>
+      </c>
+      <c r="N55">
+        <v>867.75400000000002</v>
+      </c>
+      <c r="O55">
+        <v>10161.905000000001</v>
+      </c>
+      <c r="P55">
+        <v>8875.8989999999994</v>
+      </c>
+      <c r="Q55">
+        <v>-302.24299999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>14493.243</v>
+      </c>
+      <c r="U55">
+        <v>188.886</v>
+      </c>
+      <c r="V55">
+        <v>72.242999999999995</v>
+      </c>
+      <c r="W55">
+        <v>-168.24100000000001</v>
+      </c>
+      <c r="X55">
+        <v>132.184</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-235.86099999999999</v>
+      </c>
+      <c r="AA55">
+        <v>6.8010000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>81.180000000000007</v>
+      </c>
+      <c r="D56">
+        <v>481.24</v>
+      </c>
+      <c r="E56">
+        <v>123.961</v>
+      </c>
+      <c r="F56">
+        <v>343.827</v>
+      </c>
+      <c r="G56">
+        <v>403.91500000000002</v>
+      </c>
+      <c r="H56">
+        <v>24131.562000000002</v>
+      </c>
+      <c r="I56">
+        <v>572.93899999999996</v>
+      </c>
+      <c r="J56">
+        <v>8504.4529999999995</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>640.84900000000005</v>
+      </c>
+      <c r="O56">
+        <v>9854.7119999999995</v>
+      </c>
+      <c r="P56">
+        <v>8534.5210000000006</v>
+      </c>
+      <c r="Q56">
+        <v>78.540999999999997</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>14276.85</v>
+      </c>
+      <c r="U56">
+        <v>267.42700000000002</v>
+      </c>
+      <c r="V56">
+        <v>233.62299999999999</v>
+      </c>
+      <c r="W56">
+        <v>-168.00399999999999</v>
+      </c>
+      <c r="X56">
+        <v>-483.07799999999997</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-293.11200000000002</v>
+      </c>
+      <c r="AA56">
+        <v>81.180000000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>137.91499999999999</v>
+      </c>
+      <c r="D57">
+        <v>443.66500000000002</v>
+      </c>
+      <c r="E57">
+        <v>132.464</v>
+      </c>
+      <c r="F57">
+        <v>318.899</v>
+      </c>
+      <c r="G57">
+        <v>505.89</v>
+      </c>
+      <c r="H57">
+        <v>24072.102999999999</v>
+      </c>
+      <c r="I57">
+        <v>552.24199999999996</v>
+      </c>
+      <c r="J57">
+        <v>8803.9519999999993</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>575.96500000000003</v>
+      </c>
+      <c r="O57">
+        <v>9935.3539999999994</v>
+      </c>
+      <c r="P57">
+        <v>8827.6749999999993</v>
+      </c>
+      <c r="Q57">
+        <v>44.451999999999998</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>14136.749</v>
+      </c>
+      <c r="U57">
+        <v>311.87900000000002</v>
+      </c>
+      <c r="V57">
+        <v>144.92099999999999</v>
+      </c>
+      <c r="W57">
+        <v>-166.01400000000001</v>
+      </c>
+      <c r="X57">
+        <v>327.75200000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-607.04999999999995</v>
+      </c>
+      <c r="AA57">
+        <v>137.91499999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>410.28699999999998</v>
+      </c>
+      <c r="D58">
+        <v>505.74200000000002</v>
+      </c>
+      <c r="E58">
+        <v>103.44499999999999</v>
+      </c>
+      <c r="F58">
+        <v>375.31799999999998</v>
+      </c>
+      <c r="G58">
+        <v>842.72900000000004</v>
+      </c>
+      <c r="H58">
+        <v>25775.001</v>
+      </c>
+      <c r="I58">
+        <v>627.99900000000002</v>
+      </c>
+      <c r="J58">
+        <v>9336.9770000000008</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>790.17499999999995</v>
+      </c>
+      <c r="O58">
+        <v>10591.402</v>
+      </c>
+      <c r="P58">
+        <v>9338.3719999999994</v>
+      </c>
+      <c r="Q58">
+        <v>38.813000000000002</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>1505</v>
+      </c>
+      <c r="T58">
+        <v>15183.599</v>
+      </c>
+      <c r="U58">
+        <v>350.69200000000001</v>
+      </c>
+      <c r="V58">
+        <v>253.744</v>
+      </c>
+      <c r="W58">
+        <v>-169.93100000000001</v>
+      </c>
+      <c r="X58">
+        <v>-314.67500000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>640.69399999999996</v>
+      </c>
+      <c r="AA58">
+        <v>410.28699999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>346.87599999999998</v>
+      </c>
+      <c r="D59">
+        <v>493.88900000000001</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>341.61200000000002</v>
+      </c>
+      <c r="G59">
+        <v>726.74199999999996</v>
+      </c>
+      <c r="H59">
+        <v>25460.821</v>
+      </c>
+      <c r="I59">
+        <v>459.84500000000003</v>
+      </c>
+      <c r="J59">
+        <v>8509.4210000000003</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-313.005</v>
+      </c>
+      <c r="N59">
+        <v>600.13699999999994</v>
+      </c>
+      <c r="O59">
+        <v>9668.0139999999992</v>
+      </c>
+      <c r="P59">
+        <v>8641.4210000000003</v>
+      </c>
+      <c r="Q59">
+        <v>-158.679</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>15792.807000000001</v>
+      </c>
+      <c r="U59">
+        <v>192.01300000000001</v>
+      </c>
+      <c r="V59">
+        <v>81.531999999999996</v>
+      </c>
+      <c r="W59">
+        <v>-190.58500000000001</v>
+      </c>
+      <c r="X59">
+        <v>-31.952999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-88.84</v>
+      </c>
+      <c r="AA59">
+        <v>346.87599999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>141.91800000000001</v>
+      </c>
+      <c r="D60">
+        <v>552.18799999999999</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>401.42099999999999</v>
+      </c>
+      <c r="G60">
+        <v>1063.277</v>
+      </c>
+      <c r="H60">
+        <v>31602.397000000001</v>
+      </c>
+      <c r="I60">
+        <v>537.43200000000002</v>
+      </c>
+      <c r="J60">
+        <v>12097.305</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>572.64700000000005</v>
+      </c>
+      <c r="O60">
+        <v>13248.373</v>
+      </c>
+      <c r="P60">
+        <v>12123.56</v>
+      </c>
+      <c r="Q60">
+        <v>159.012</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>18354.024000000001</v>
+      </c>
+      <c r="U60">
+        <v>351.02499999999998</v>
+      </c>
+      <c r="V60">
+        <v>274.35700000000003</v>
+      </c>
+      <c r="W60">
+        <v>-190.60400000000001</v>
+      </c>
+      <c r="X60">
+        <v>4763.3829999999998</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-184.965</v>
+      </c>
+      <c r="AA60">
+        <v>141.91800000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>260.64999999999998</v>
+      </c>
+      <c r="D61">
+        <v>614.17899999999997</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>447.363</v>
+      </c>
+      <c r="G61">
+        <v>877.31500000000005</v>
+      </c>
+      <c r="H61">
+        <v>31419.353999999999</v>
+      </c>
+      <c r="I61">
+        <v>697.86</v>
+      </c>
+      <c r="J61">
+        <v>11916.355</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>723.09</v>
+      </c>
+      <c r="O61">
+        <v>13234.383</v>
+      </c>
+      <c r="P61">
+        <v>11934.355</v>
+      </c>
+      <c r="Q61">
+        <v>-40.591999999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>18184.971000000001</v>
+      </c>
+      <c r="U61">
+        <v>310.43299999999999</v>
+      </c>
+      <c r="V61">
+        <v>400.66800000000001</v>
+      </c>
+      <c r="W61">
+        <v>-211.60599999999999</v>
+      </c>
+      <c r="X61">
+        <v>-550.44899999999996</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-150.25</v>
+      </c>
+      <c r="AA61">
+        <v>260.64999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>119.995</v>
+      </c>
+      <c r="D62">
+        <v>696.08</v>
+      </c>
+      <c r="E62">
+        <v>89.611000000000004</v>
+      </c>
+      <c r="F62">
+        <v>513.33600000000001</v>
+      </c>
+      <c r="G62">
+        <v>1255.1199999999999</v>
+      </c>
+      <c r="H62">
+        <v>31394.767</v>
+      </c>
+      <c r="I62">
+        <v>712.72500000000002</v>
+      </c>
+      <c r="J62">
+        <v>11626.831</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>839.33500000000004</v>
+      </c>
+      <c r="O62">
+        <v>12973.931</v>
+      </c>
+      <c r="P62">
+        <v>11638.925999999999</v>
+      </c>
+      <c r="Q62">
+        <v>-46.353000000000002</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>1555</v>
+      </c>
+      <c r="T62">
+        <v>18420.835999999999</v>
+      </c>
+      <c r="U62">
+        <v>264.08</v>
+      </c>
+      <c r="V62">
+        <v>359.77</v>
+      </c>
+      <c r="W62">
+        <v>-211.90199999999999</v>
+      </c>
+      <c r="X62">
+        <v>-585.06500000000005</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-20.959</v>
+      </c>
+      <c r="AA62">
+        <v>119.995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>209.73</v>
+      </c>
+      <c r="D63">
+        <v>664.61099999999999</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>492.73700000000002</v>
+      </c>
+      <c r="G63">
+        <v>838.61900000000003</v>
+      </c>
+      <c r="H63">
+        <v>31375.748</v>
+      </c>
+      <c r="I63">
+        <v>698.678</v>
+      </c>
+      <c r="J63">
+        <v>11687.171</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-809.30899999999997</v>
+      </c>
+      <c r="N63">
+        <v>704.85199999999998</v>
+      </c>
+      <c r="O63">
+        <v>13035.124</v>
+      </c>
+      <c r="P63">
+        <v>11687.171</v>
+      </c>
+      <c r="Q63">
+        <v>105.657</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>18340.624</v>
+      </c>
+      <c r="U63">
+        <v>369.73700000000002</v>
+      </c>
+      <c r="V63">
+        <v>283.87599999999998</v>
+      </c>
+      <c r="W63">
+        <v>-222.559</v>
+      </c>
+      <c r="X63">
+        <v>-516.53899999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-5.8760000000000003</v>
+      </c>
+      <c r="AA63">
+        <v>209.73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>277.07900000000001</v>
+      </c>
+      <c r="D64">
+        <v>643.60900000000004</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>475.01799999999997</v>
+      </c>
+      <c r="G64">
+        <v>759.45500000000004</v>
+      </c>
+      <c r="H64">
+        <v>30745.934000000001</v>
+      </c>
+      <c r="I64">
+        <v>627.44100000000003</v>
+      </c>
+      <c r="J64">
+        <v>11139.415000000001</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>634.16700000000003</v>
+      </c>
+      <c r="O64">
+        <v>12462.9</v>
+      </c>
+      <c r="P64">
+        <v>11139.415000000001</v>
+      </c>
+      <c r="Q64">
+        <v>-37.515999999999998</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>18283.034</v>
+      </c>
+      <c r="U64">
+        <v>332.221</v>
+      </c>
+      <c r="V64">
+        <v>349.78399999999999</v>
+      </c>
+      <c r="W64">
+        <v>-222.78399999999999</v>
+      </c>
+      <c r="X64">
+        <v>-920.81399999999996</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>393.92200000000003</v>
+      </c>
+      <c r="AA64">
+        <v>277.07900000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>280.92599999999999</v>
+      </c>
+      <c r="D65">
+        <v>750.42200000000003</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>565.28399999999999</v>
+      </c>
+      <c r="G65">
+        <v>859.26900000000001</v>
+      </c>
+      <c r="H65">
+        <v>30888.208999999999</v>
+      </c>
+      <c r="I65">
+        <v>672.11099999999999</v>
+      </c>
+      <c r="J65">
+        <v>11256.996999999999</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>676.80399999999997</v>
+      </c>
+      <c r="O65">
+        <v>12604.939</v>
+      </c>
+      <c r="P65">
+        <v>11256.996999999999</v>
+      </c>
+      <c r="Q65">
+        <v>42.899000000000001</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>18283.27</v>
+      </c>
+      <c r="U65">
+        <v>375.12</v>
+      </c>
+      <c r="V65">
+        <v>363.351</v>
+      </c>
+      <c r="W65">
+        <v>-224.041</v>
+      </c>
+      <c r="X65">
+        <v>-191.31</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-37.5</v>
+      </c>
+      <c r="AA65">
+        <v>280.92599999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>442.197</v>
+      </c>
+      <c r="D66">
+        <v>680.8</v>
+      </c>
+      <c r="E66">
+        <v>110.91800000000001</v>
+      </c>
+      <c r="F66">
+        <v>509.02699999999999</v>
+      </c>
+      <c r="G66">
+        <v>1570.4849999999999</v>
+      </c>
+      <c r="H66">
+        <v>30249.932000000001</v>
+      </c>
+      <c r="I66">
+        <v>556.17899999999997</v>
+      </c>
+      <c r="J66">
+        <v>10608.294</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>666.57299999999998</v>
+      </c>
+      <c r="O66">
+        <v>11791.791999999999</v>
+      </c>
+      <c r="P66">
+        <v>10608.294</v>
+      </c>
+      <c r="Q66">
+        <v>432.19600000000003</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>1530</v>
+      </c>
+      <c r="T66">
+        <v>18458.14</v>
+      </c>
+      <c r="U66">
+        <v>807.31600000000003</v>
+      </c>
+      <c r="V66">
+        <v>419.99400000000003</v>
+      </c>
+      <c r="W66">
+        <v>-224.071</v>
+      </c>
+      <c r="X66">
+        <v>-496.80200000000002</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>160.053</v>
+      </c>
+      <c r="AA66">
+        <v>442.197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>204.929</v>
+      </c>
+      <c r="D67">
+        <v>677.76</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>493.30500000000001</v>
+      </c>
+      <c r="G67">
+        <v>852.57799999999997</v>
+      </c>
+      <c r="H67">
+        <v>29814.957999999999</v>
+      </c>
+      <c r="I67">
+        <v>549.83600000000001</v>
+      </c>
+      <c r="J67">
+        <v>10966.932000000001</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-235.54499999999999</v>
+      </c>
+      <c r="N67">
+        <v>555.54499999999996</v>
+      </c>
+      <c r="O67">
+        <v>12146.537</v>
+      </c>
+      <c r="P67">
+        <v>10966.932000000001</v>
+      </c>
+      <c r="Q67">
+        <v>-411.48700000000002</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>17668.420999999998</v>
+      </c>
+      <c r="U67">
+        <v>395.82900000000001</v>
+      </c>
+      <c r="V67">
+        <v>352.79399999999998</v>
+      </c>
+      <c r="W67">
+        <v>-235.072</v>
+      </c>
+      <c r="X67">
+        <v>-828.928</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>1.885</v>
+      </c>
+      <c r="AA67">
+        <v>204.929</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>268.61700000000002</v>
+      </c>
+      <c r="D68">
+        <v>834.779</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>634.99900000000002</v>
+      </c>
+      <c r="G68">
+        <v>641.87699999999995</v>
+      </c>
+      <c r="H68">
+        <v>30150.395</v>
+      </c>
+      <c r="I68">
+        <v>554.77499999999998</v>
+      </c>
+      <c r="J68">
+        <v>11081.922</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>561.05600000000004</v>
+      </c>
+      <c r="O68">
+        <v>12290.156999999999</v>
+      </c>
+      <c r="P68">
+        <v>11081.922</v>
+      </c>
+      <c r="Q68">
+        <v>-124.47499999999999</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>17860.238000000001</v>
+      </c>
+      <c r="U68">
+        <v>271.35399999999998</v>
+      </c>
+      <c r="V68">
+        <v>392.36599999999999</v>
+      </c>
+      <c r="W68">
+        <v>-235.72</v>
+      </c>
+      <c r="X68">
+        <v>-297.423</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-13.102</v>
+      </c>
+      <c r="AA68">
+        <v>268.61700000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>877.89300000000003</v>
+      </c>
+      <c r="D69">
+        <v>657.94</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>493.209</v>
+      </c>
+      <c r="G69">
+        <v>890.63099999999997</v>
+      </c>
+      <c r="H69">
+        <v>29654.15</v>
+      </c>
+      <c r="I69">
+        <v>707.04899999999998</v>
+      </c>
+      <c r="J69">
+        <v>9721.0650000000005</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>714.43799999999999</v>
+      </c>
+      <c r="O69">
+        <v>11094.894</v>
+      </c>
+      <c r="P69">
+        <v>9721.0650000000005</v>
+      </c>
+      <c r="Q69">
+        <v>297.37200000000001</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>18559.256000000001</v>
+      </c>
+      <c r="U69">
+        <v>568.726</v>
+      </c>
+      <c r="V69">
+        <v>615.15300000000002</v>
+      </c>
+      <c r="W69">
+        <v>-236.46799999999999</v>
+      </c>
+      <c r="X69">
+        <v>-830.93600000000004</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-89.48</v>
+      </c>
+      <c r="AA69">
+        <v>877.89300000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>300.88600000000002</v>
+      </c>
+      <c r="D70">
+        <v>696.22199999999998</v>
+      </c>
+      <c r="E70">
+        <v>85.117999999999995</v>
+      </c>
+      <c r="F70">
+        <v>520.524</v>
+      </c>
+      <c r="G70">
+        <v>1149.547</v>
+      </c>
+      <c r="H70">
+        <v>29481.075000000001</v>
+      </c>
+      <c r="I70">
+        <v>702.80399999999997</v>
+      </c>
+      <c r="J70">
+        <v>9412.6309999999994</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>827.83</v>
+      </c>
+      <c r="O70">
+        <v>10775.334000000001</v>
+      </c>
+      <c r="P70">
+        <v>9412.6309999999994</v>
+      </c>
+      <c r="Q70">
+        <v>-121.68</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>1565</v>
+      </c>
+      <c r="T70">
+        <v>18705.741000000002</v>
+      </c>
+      <c r="U70">
+        <v>447.04599999999999</v>
+      </c>
+      <c r="V70">
+        <v>326.93299999999999</v>
+      </c>
+      <c r="W70">
+        <v>-235.624</v>
+      </c>
+      <c r="X70">
+        <v>-649.29700000000003</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>60.113</v>
+      </c>
+      <c r="AA70">
+        <v>300.88600000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>367.37799999999999</v>
+      </c>
+      <c r="D71">
+        <v>756.31200000000001</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>569.51099999999997</v>
+      </c>
+      <c r="G71">
+        <v>933.38</v>
+      </c>
+      <c r="H71">
+        <v>29671.485000000001</v>
+      </c>
+      <c r="I71">
+        <v>692.85299999999995</v>
+      </c>
+      <c r="J71">
+        <v>9460.1769999999997</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-696.01099999999997</v>
+      </c>
+      <c r="N71">
+        <v>698.18799999999999</v>
+      </c>
+      <c r="O71">
+        <v>10883.365</v>
+      </c>
+      <c r="P71">
+        <v>9460.1769999999997</v>
+      </c>
+      <c r="Q71">
+        <v>11.053000000000001</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>18788.12</v>
+      </c>
+      <c r="U71">
+        <v>458.09899999999999</v>
+      </c>
+      <c r="V71">
+        <v>349.24099999999999</v>
+      </c>
+      <c r="W71">
+        <v>-257.68700000000001</v>
+      </c>
+      <c r="X71">
+        <v>-495.96899999999999</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>59.08</v>
+      </c>
+      <c r="AA71">
+        <v>367.37799999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>336.08699999999999</v>
+      </c>
+      <c r="D72">
+        <v>683.82500000000005</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>515.64599999999996</v>
+      </c>
+      <c r="G72">
+        <v>1431.8420000000001</v>
+      </c>
+      <c r="H72">
+        <v>29502.882000000001</v>
+      </c>
+      <c r="I72">
+        <v>719.67899999999997</v>
+      </c>
+      <c r="J72">
+        <v>9427.1239999999998</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>755.22799999999995</v>
+      </c>
+      <c r="O72">
+        <v>10776.379000000001</v>
+      </c>
+      <c r="P72">
+        <v>9427.6790000000001</v>
+      </c>
+      <c r="Q72">
+        <v>69.730999999999995</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>18726.503000000001</v>
+      </c>
+      <c r="U72">
+        <v>527.83000000000004</v>
+      </c>
+      <c r="V72">
+        <v>423.983</v>
+      </c>
+      <c r="W72">
+        <v>-257.55799999999999</v>
+      </c>
+      <c r="X72">
+        <v>-4.2750000000000004</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-7.69</v>
+      </c>
+      <c r="AA72">
+        <v>336.08699999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>347.83600000000001</v>
+      </c>
+      <c r="D73">
+        <v>739.06600000000003</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>556.49199999999996</v>
+      </c>
+      <c r="G73">
+        <v>1060.18</v>
+      </c>
+      <c r="H73">
+        <v>38268.161999999997</v>
+      </c>
+      <c r="I73">
+        <v>873.41200000000003</v>
+      </c>
+      <c r="J73">
+        <v>11232.129000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>904.05799999999999</v>
+      </c>
+      <c r="O73">
+        <v>12830.507</v>
+      </c>
+      <c r="P73">
+        <v>11232.582</v>
+      </c>
+      <c r="Q73">
+        <v>-252.268</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>25437.654999999999</v>
+      </c>
+      <c r="U73">
+        <v>275.56200000000001</v>
+      </c>
+      <c r="V73">
+        <v>500.69400000000002</v>
+      </c>
+      <c r="W73">
+        <v>-304.33100000000002</v>
+      </c>
+      <c r="X73">
+        <v>-288.84699999999998</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>7.2050000000000001</v>
+      </c>
+      <c r="AA73">
+        <v>347.83600000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>598.05999999999995</v>
+      </c>
+      <c r="D74">
+        <v>923.50599999999997</v>
+      </c>
+      <c r="E74">
+        <v>107.14100000000001</v>
+      </c>
+      <c r="F74">
+        <v>703.37199999999996</v>
+      </c>
+      <c r="G74">
+        <v>1336.982</v>
+      </c>
+      <c r="H74">
+        <v>38417.663999999997</v>
+      </c>
+      <c r="I74">
+        <v>760.51499999999999</v>
+      </c>
+      <c r="J74">
+        <v>11089.815000000001</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>941.31200000000001</v>
+      </c>
+      <c r="O74">
+        <v>12616.776</v>
+      </c>
+      <c r="P74">
+        <v>11090.243</v>
+      </c>
+      <c r="Q74">
+        <v>68.293999999999997</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>1617</v>
+      </c>
+      <c r="T74">
+        <v>25800.887999999999</v>
+      </c>
+      <c r="U74">
+        <v>343.85599999999999</v>
+      </c>
+      <c r="V74">
+        <v>529.64099999999996</v>
+      </c>
+      <c r="W74">
+        <v>-303.791</v>
+      </c>
+      <c r="X74">
+        <v>-443.01</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>141.32499999999999</v>
+      </c>
+      <c r="AA74">
+        <v>598.05999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>348.54599999999999</v>
+      </c>
+      <c r="D75">
+        <v>828.71799999999996</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>602.59199999999998</v>
+      </c>
+      <c r="G75">
+        <v>1175.4269999999999</v>
+      </c>
+      <c r="H75">
+        <v>38392.112000000001</v>
+      </c>
+      <c r="I75">
+        <v>695.76099999999997</v>
+      </c>
+      <c r="J75">
+        <v>10706.138999999999</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-1443.0029999999999</v>
+      </c>
+      <c r="N75">
+        <v>711.947</v>
+      </c>
+      <c r="O75">
+        <v>12568.050999999999</v>
+      </c>
+      <c r="P75">
+        <v>11098.887000000001</v>
+      </c>
+      <c r="Q75">
+        <v>-92.825999999999993</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>25824.061000000002</v>
+      </c>
+      <c r="U75">
+        <v>251.03</v>
+      </c>
+      <c r="V75">
+        <v>494.91399999999999</v>
+      </c>
+      <c r="W75">
+        <v>-336.09399999999999</v>
+      </c>
+      <c r="X75">
+        <v>-748.63400000000001</v>
+      </c>
+      <c r="Y75">
+        <v>392.34100000000001</v>
+      </c>
+      <c r="Z75">
+        <v>279.98</v>
+      </c>
+      <c r="AA75">
+        <v>348.54599999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>385.27600000000001</v>
+      </c>
+      <c r="D76">
+        <v>838.928</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>620.58399999999995</v>
+      </c>
+      <c r="G76">
+        <v>1040.82</v>
+      </c>
+      <c r="H76">
+        <v>38706.75</v>
+      </c>
+      <c r="I76">
+        <v>740.94100000000003</v>
+      </c>
+      <c r="J76">
+        <v>10968.32</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>758.33299999999997</v>
+      </c>
+      <c r="O76">
+        <v>12929.316999999999</v>
+      </c>
+      <c r="P76">
+        <v>11371.919</v>
+      </c>
+      <c r="Q76">
+        <v>150.16</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>25777.433000000001</v>
+      </c>
+      <c r="U76">
+        <v>401.19</v>
+      </c>
+      <c r="V76">
+        <v>508.60700000000003</v>
+      </c>
+      <c r="W76">
+        <v>-336.26900000000001</v>
+      </c>
+      <c r="X76">
+        <v>-285.26600000000002</v>
+      </c>
+      <c r="Y76">
+        <v>403.17</v>
+      </c>
+      <c r="Z76">
+        <v>-106.85299999999999</v>
+      </c>
+      <c r="AA76">
+        <v>385.27600000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>452.14600000000002</v>
+      </c>
+      <c r="D77">
+        <v>988.48299999999995</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>744.21500000000003</v>
+      </c>
+      <c r="G77">
+        <v>1864.12</v>
+      </c>
+      <c r="H77">
+        <v>39448.184999999998</v>
+      </c>
+      <c r="I77">
+        <v>808.89800000000002</v>
+      </c>
+      <c r="J77">
+        <v>11459.223</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>846.22</v>
+      </c>
+      <c r="O77">
+        <v>13512.608</v>
+      </c>
+      <c r="P77">
+        <v>11891.641</v>
+      </c>
+      <c r="Q77">
+        <v>623.80399999999997</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>25935.577000000001</v>
+      </c>
+      <c r="U77">
+        <v>1024.9939999999999</v>
+      </c>
+      <c r="V77">
+        <v>644.13900000000001</v>
+      </c>
+      <c r="W77">
+        <v>-336.59899999999999</v>
+      </c>
+      <c r="X77">
+        <v>350.52300000000002</v>
+      </c>
+      <c r="Y77">
+        <v>432.12200000000001</v>
+      </c>
+      <c r="Z77">
+        <v>-69.748000000000005</v>
+      </c>
+      <c r="AA77">
+        <v>452.14600000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>386.99099999999999</v>
+      </c>
+      <c r="D78">
+        <v>874.67</v>
+      </c>
+      <c r="E78">
+        <v>85.834999999999994</v>
+      </c>
+      <c r="F78">
+        <v>644.48099999999999</v>
+      </c>
+      <c r="G78">
+        <v>2174.5479999999998</v>
+      </c>
+      <c r="H78">
+        <v>40031.85</v>
+      </c>
+      <c r="I78">
+        <v>704.95399999999995</v>
+      </c>
+      <c r="J78">
+        <v>11905.877</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>910.06399999999996</v>
+      </c>
+      <c r="O78">
+        <v>13960.066000000001</v>
+      </c>
+      <c r="P78">
+        <v>12377.511</v>
+      </c>
+      <c r="Q78">
+        <v>63.860999999999997</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>1712</v>
+      </c>
+      <c r="T78">
+        <v>26071.784</v>
+      </c>
+      <c r="U78">
+        <v>1088.855</v>
+      </c>
+      <c r="V78">
+        <v>616.37400000000002</v>
+      </c>
+      <c r="W78">
+        <v>-336.69799999999998</v>
+      </c>
+      <c r="X78">
+        <v>-156.22200000000001</v>
+      </c>
+      <c r="Y78">
+        <v>471.63400000000001</v>
+      </c>
+      <c r="Z78">
+        <v>9.9149999999999991</v>
+      </c>
+      <c r="AA78">
+        <v>386.99099999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>491.053</v>
+      </c>
+      <c r="D79">
+        <v>1066.971</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>792.779</v>
+      </c>
+      <c r="G79">
+        <v>2841.0349999999999</v>
+      </c>
+      <c r="H79">
+        <v>55007.247000000003</v>
+      </c>
+      <c r="I79">
+        <v>888.34100000000001</v>
+      </c>
+      <c r="J79">
+        <v>15676.592000000001</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-4190.241</v>
+      </c>
+      <c r="N79">
+        <v>936.35</v>
+      </c>
+      <c r="O79">
+        <v>18231.377</v>
+      </c>
+      <c r="P79">
+        <v>16174.704</v>
+      </c>
+      <c r="Q79">
+        <v>-280.98399999999998</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>36775.870000000003</v>
+      </c>
+      <c r="U79">
+        <v>807.87099999999998</v>
+      </c>
+      <c r="V79">
+        <v>679.09299999999996</v>
+      </c>
+      <c r="W79">
+        <v>-430.76600000000002</v>
+      </c>
+      <c r="X79">
+        <v>1050.4110000000001</v>
+      </c>
+      <c r="Y79">
+        <v>498.11200000000002</v>
+      </c>
+      <c r="Z79">
+        <v>-111.773</v>
+      </c>
+      <c r="AA79">
+        <v>491.053</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>406.173</v>
+      </c>
+      <c r="D80">
+        <v>1320.2660000000001</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1006.612</v>
+      </c>
+      <c r="G80">
+        <v>2542.136</v>
+      </c>
+      <c r="H80">
+        <v>55221.857000000004</v>
+      </c>
+      <c r="I80">
+        <v>1140.569</v>
+      </c>
+      <c r="J80">
+        <v>15666.871999999999</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1192.6189999999999</v>
+      </c>
+      <c r="O80">
+        <v>18475.648000000001</v>
+      </c>
+      <c r="P80">
+        <v>16155.743</v>
+      </c>
+      <c r="Q80">
+        <v>-258.74200000000002</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>36746.209000000003</v>
+      </c>
+      <c r="U80">
+        <v>549.12900000000002</v>
+      </c>
+      <c r="V80">
+        <v>676.25599999999997</v>
+      </c>
+      <c r="W80">
+        <v>-430.971</v>
+      </c>
+      <c r="X80">
+        <v>-696.048</v>
+      </c>
+      <c r="Y80">
+        <v>488.55</v>
+      </c>
+      <c r="Z80">
+        <v>-33.584000000000003</v>
+      </c>
+      <c r="AA80">
+        <v>406.173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>302.69400000000002</v>
+      </c>
+      <c r="D81">
+        <v>1156.7449999999999</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>865.46400000000006</v>
+      </c>
+      <c r="G81">
+        <v>2716.3939999999998</v>
+      </c>
+      <c r="H81">
+        <v>55759.597999999998</v>
+      </c>
+      <c r="I81">
+        <v>1119.124</v>
+      </c>
+      <c r="J81">
+        <v>16518.126</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1165.5119999999999</v>
+      </c>
+      <c r="O81">
+        <v>19270.291000000001</v>
+      </c>
+      <c r="P81">
+        <v>16966.893</v>
+      </c>
+      <c r="Q81">
+        <v>391.06400000000002</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>36489.307000000001</v>
+      </c>
+      <c r="U81">
+        <v>940.19299999999998</v>
+      </c>
+      <c r="V81">
+        <v>977.98599999999999</v>
+      </c>
+      <c r="W81">
+        <v>-430.589</v>
+      </c>
+      <c r="X81">
+        <v>-260.32499999999999</v>
+      </c>
+      <c r="Y81">
+        <v>448.53399999999999</v>
+      </c>
+      <c r="Z81">
+        <v>6.7880000000000003</v>
+      </c>
+      <c r="AA81">
+        <v>302.69400000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>281.89400000000001</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1192.123</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>189.35599999999999</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>901.14599999999996</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2189.58</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>56065.004999999997</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1143.3720000000001</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>16849.076000000001</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1422.671</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>19740.424999999999</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>17336.197</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-342.10700000000003</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>1945</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>36324.58</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>598.08600000000001</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>603.66999999999996</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-430.66300000000001</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-466.2</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>440.46800000000002</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>9.6980000000000004</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>281.89400000000001</v>
       </c>
     </row>
